--- a/src/achievement.xlsx
+++ b/src/achievement.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138377F1-AE57-4BE3-ABE5-A80FDBF4AE2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -207,12 +206,63 @@
   <si>
     <t>玩家等级达到15级</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到20级</t>
+  </si>
+  <si>
+    <t>玩家等级达到25级</t>
+  </si>
+  <si>
+    <t>玩家等级达到30级</t>
+  </si>
+  <si>
+    <t>玩家等级达到35级</t>
+  </si>
+  <si>
+    <t>玩家等级达到40级</t>
+  </si>
+  <si>
+    <t>玩家等级达到45级</t>
+  </si>
+  <si>
+    <t>玩家等级达到50级</t>
+  </si>
+  <si>
+    <t>玩家等级达到55级</t>
+  </si>
+  <si>
+    <t>玩家等级达到60级</t>
+  </si>
+  <si>
+    <t>玩家等级达到65级</t>
+  </si>
+  <si>
+    <t>玩家等级达到70级</t>
+  </si>
+  <si>
+    <t>玩家等级达到75级</t>
+  </si>
+  <si>
+    <t>玩家等级达到80级</t>
+  </si>
+  <si>
+    <t>玩家等级达到85级</t>
+  </si>
+  <si>
+    <t>玩家等级达到90级</t>
+  </si>
+  <si>
+    <t>玩家等级达到95级</t>
+  </si>
+  <si>
+    <t>玩家等级达到100级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,42 +597,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +684,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -714,7 +764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -794,7 +844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -848,7 +898,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -898,7 +948,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -914,7 +964,9 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
         <v>15</v>
@@ -946,34 +998,32 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
       <c r="L7" s="4">
         <v>100</v>
       </c>
@@ -998,28 +1048,32 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
       <c r="L8" s="4">
         <v>100</v>
       </c>
@@ -1044,6 +1098,852 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>100</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4">
+        <v>6</v>
+      </c>
+      <c r="O9" s="4">
+        <v>101</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="4">
+        <v>6</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>100</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4">
+        <v>101</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4">
+        <v>7</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>100</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4">
+        <v>8</v>
+      </c>
+      <c r="O11" s="4">
+        <v>101</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="4">
+        <v>8</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4">
+        <v>101</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4">
+        <v>9</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4">
+        <v>101</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="4">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4">
+        <v>11</v>
+      </c>
+      <c r="O14" s="4">
+        <v>101</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4">
+        <v>11</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>60</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>100</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4">
+        <v>12</v>
+      </c>
+      <c r="O15" s="4">
+        <v>101</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="4">
+        <v>12</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>65</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>100</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4">
+        <v>13</v>
+      </c>
+      <c r="O16" s="4">
+        <v>101</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="4">
+        <v>13</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="4">
+        <v>14</v>
+      </c>
+      <c r="O17" s="4">
+        <v>101</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="4">
+        <v>14</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>75</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4">
+        <v>15</v>
+      </c>
+      <c r="O18" s="4">
+        <v>101</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="4">
+        <v>15</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>80</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>100</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="4">
+        <v>16</v>
+      </c>
+      <c r="O19" s="4">
+        <v>101</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="4">
+        <v>16</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>85</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="4">
+        <v>17</v>
+      </c>
+      <c r="O20" s="4">
+        <v>101</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="4">
+        <v>17</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>90</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>100</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="4">
+        <v>18</v>
+      </c>
+      <c r="O21" s="4">
+        <v>101</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="4">
+        <v>18</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>95</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4">
+        <v>19</v>
+      </c>
+      <c r="O22" s="4">
+        <v>101</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="4">
+        <v>19</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>100</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="4">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4">
+        <v>101</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="4">
+        <v>20</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>101</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>102</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="4">
+        <v>100</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4">
+        <v>4</v>
+      </c>
+      <c r="O24" s="4">
+        <v>101</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="4">
+        <v>4</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="4">
+        <v>100</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4">
+        <v>5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>101</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="4">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,17 +1952,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,17 +1973,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,13 +1991,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1109,13 +2009,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/achievement.xlsx
+++ b/src/achievement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C25743-67ED-42FC-A390-5BA638403900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -188,81 +189,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到5级</t>
+    <t>完成关卡{1}</t>
+  </si>
+  <si>
+    <t>完成关卡{1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成关卡1-1</t>
+    <t>完成关卡{1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成关卡1-2</t>
+    <t>玩家等级达到{1}级</t>
+  </si>
+  <si>
+    <t>玩家等级达到{1}级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到10级</t>
+    <t>升级房子等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到15级</t>
+    <t>升级房子{1}次</t>
+  </si>
+  <si>
+    <t>升级房子{1}次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到20级</t>
+    <t>房子进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到25级</t>
+    <t>进阶房子{1}次</t>
   </si>
   <si>
-    <t>玩家等级达到30级</t>
+    <t>进阶房子{1}次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到35级</t>
+    <t>玩家等级达到{1}级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到40级</t>
+    <t>显示顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家等级达到45级</t>
-  </si>
-  <si>
-    <t>玩家等级达到50级</t>
-  </si>
-  <si>
-    <t>玩家等级达到55级</t>
-  </si>
-  <si>
-    <t>玩家等级达到60级</t>
-  </si>
-  <si>
-    <t>玩家等级达到65级</t>
-  </si>
-  <si>
-    <t>玩家等级达到70级</t>
-  </si>
-  <si>
-    <t>玩家等级达到75级</t>
-  </si>
-  <si>
-    <t>玩家等级达到80级</t>
-  </si>
-  <si>
-    <t>玩家等级达到85级</t>
-  </si>
-  <si>
-    <t>玩家等级达到90级</t>
-  </si>
-  <si>
-    <t>玩家等级达到95级</t>
-  </si>
-  <si>
-    <t>玩家等级达到100级</t>
+    <t>order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,42 +579,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,9 +650,11 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -683,8 +668,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,52 +705,55 @@
         <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -843,10 +832,13 @@
       <c r="Z3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -855,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -863,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -874,21 +866,23 @@
       <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="4">
-        <v>101</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="4">
+        <v>100</v>
+      </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -897,17 +891,18 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -915,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -924,40 +919,47 @@
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="4">
-        <v>100</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>100</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="4">
-        <v>101</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="4">
-        <v>2</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="4">
+        <v>200</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2002</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -965,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
@@ -974,40 +976,41 @@
       <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
-        <v>100</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="4">
-        <v>3</v>
-      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="4">
-        <v>101</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="4">
-        <v>3</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="4">
+        <v>300</v>
+      </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1015,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -1024,40 +1027,47 @@
       <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
-        <v>100</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="4">
         <v>4</v>
       </c>
-      <c r="O7" s="4">
-        <v>101</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4">
-        <v>4</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="4">
+        <v>400</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2003</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1065,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
@@ -1074,21 +1084,23 @@
       <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="4">
-        <v>100</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4">
         <v>5</v>
       </c>
-      <c r="O8" s="4">
-        <v>101</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-      <c r="R8" s="4"/>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="4">
+        <v>500</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -1097,17 +1109,18 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1115,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
@@ -1124,40 +1137,47 @@
       <c r="K9" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4">
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4">
         <v>6</v>
       </c>
-      <c r="O9" s="4">
-        <v>101</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="4">
-        <v>6</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="4">
+        <v>600</v>
+      </c>
+      <c r="S9" s="4">
+        <v>2004</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1165,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
@@ -1174,21 +1194,23 @@
       <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
-        <v>100</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4">
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4">
         <v>7</v>
       </c>
-      <c r="O10" s="4">
-        <v>101</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="4">
-        <v>7</v>
-      </c>
-      <c r="R10" s="4"/>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="4">
+        <v>700</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -1197,17 +1219,18 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1215,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2">
@@ -1224,40 +1247,47 @@
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>100</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4">
         <v>8</v>
       </c>
-      <c r="O11" s="4">
-        <v>101</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="4">
-        <v>8</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="4">
+        <v>800</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2005</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1265,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
@@ -1274,21 +1304,23 @@
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="4">
-        <v>100</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="4">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>100</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4">
         <v>9</v>
       </c>
-      <c r="O12" s="4">
-        <v>101</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="4">
-        <v>9</v>
-      </c>
-      <c r="R12" s="4"/>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="4">
+        <v>900</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -1297,17 +1329,18 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1315,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2">
@@ -1324,40 +1357,47 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
-        <v>100</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4">
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>100</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="4">
         <v>10</v>
       </c>
-      <c r="O13" s="4">
-        <v>101</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="4">
-        <v>10</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2006</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1365,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
@@ -1374,21 +1414,23 @@
       <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
-        <v>100</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="4">
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>100</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="4">
         <v>11</v>
       </c>
-      <c r="O14" s="4">
-        <v>101</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="4">
-        <v>11</v>
-      </c>
-      <c r="R14" s="4"/>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="4">
+        <v>1100</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -1397,17 +1439,18 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1415,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
@@ -1424,40 +1467,47 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="4">
-        <v>100</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="4">
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>100</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="4">
         <v>12</v>
       </c>
-      <c r="O15" s="4">
-        <v>101</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="4">
-        <v>12</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="4">
+        <v>1200</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1465,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
@@ -1474,21 +1524,23 @@
       <c r="K16" s="2">
         <v>1</v>
       </c>
-      <c r="L16" s="4">
-        <v>100</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="4">
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>100</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="4">
         <v>13</v>
       </c>
-      <c r="O16" s="4">
-        <v>101</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="4">
-        <v>13</v>
-      </c>
-      <c r="R16" s="4"/>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="4">
+        <v>1300</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -1497,17 +1549,18 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1515,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2">
@@ -1524,40 +1577,47 @@
       <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="4">
-        <v>100</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="4">
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>100</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="4">
         <v>14</v>
       </c>
-      <c r="O17" s="4">
-        <v>101</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="4">
-        <v>14</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="4">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2008</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1565,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
@@ -1574,21 +1634,23 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
-        <v>100</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="4">
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>100</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="4">
         <v>15</v>
       </c>
-      <c r="O18" s="4">
-        <v>101</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="4">
-        <v>15</v>
-      </c>
-      <c r="R18" s="4"/>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="4">
+        <v>1500</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
@@ -1597,17 +1659,18 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1615,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
@@ -1624,40 +1687,47 @@
       <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>100</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="4">
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="4">
         <v>16</v>
       </c>
-      <c r="O19" s="4">
-        <v>101</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="4">
-        <v>16</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="4">
+        <v>1600</v>
+      </c>
+      <c r="S19" s="4">
+        <v>2009</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1665,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
@@ -1674,21 +1744,23 @@
       <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="4">
-        <v>100</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="4">
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>100</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="4">
         <v>17</v>
       </c>
-      <c r="O20" s="4">
-        <v>101</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="4">
-        <v>17</v>
-      </c>
-      <c r="R20" s="4"/>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="4">
+        <v>1700</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -1697,17 +1769,18 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1715,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
@@ -1724,40 +1797,47 @@
       <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
-        <v>100</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="4">
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>100</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="4">
         <v>18</v>
       </c>
-      <c r="O21" s="4">
-        <v>101</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="4">
-        <v>18</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="4">
+        <v>1800</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2010</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1765,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2">
@@ -1774,21 +1854,23 @@
       <c r="K22" s="2">
         <v>1</v>
       </c>
-      <c r="L22" s="4">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="4">
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>100</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="4">
         <v>19</v>
       </c>
-      <c r="O22" s="4">
-        <v>101</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="4">
-        <v>19</v>
-      </c>
-      <c r="R22" s="4"/>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="4">
+        <v>1900</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -1797,17 +1879,18 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1822,73 +1905,80 @@
       <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="4">
-        <v>100</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="4">
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>100</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="4">
         <v>20</v>
       </c>
-      <c r="O23" s="4">
-        <v>101</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="4">
-        <v>20</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>101</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>201</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="4">
-        <v>100</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="4">
-        <v>4</v>
-      </c>
+      <c r="L24" s="2">
+        <v>3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>100</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="4">
-        <v>101</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="4">
-        <v>4</v>
-      </c>
-      <c r="R24" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="4">
+        <v>200</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -1897,52 +1987,4715 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>203</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2">
         <v>2</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="4">
-        <v>100</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="4">
-        <v>5</v>
-      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>100</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="4">
-        <v>101</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="4">
-        <v>5</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="4">
+        <v>200</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2002</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>203</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>204</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="4">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="4">
+        <v>200</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>204</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>205</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>100</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="4">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="4">
+        <v>200</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2003</v>
+      </c>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>205</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>206</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="4">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="4">
+        <v>200</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>206</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>207</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>100</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="4">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="4">
+        <v>200</v>
+      </c>
+      <c r="S29" s="4">
+        <v>2004</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>207</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>208</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>7</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4">
+        <v>100</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="4">
+        <v>200</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>208</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>209</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <v>8</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4">
+        <v>100</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="4">
+        <v>8</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="4">
+        <v>200</v>
+      </c>
+      <c r="S31" s="4">
+        <v>2005</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>209</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>210</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="4">
+        <v>100</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4">
+        <v>9</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="4">
+        <v>200</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>210</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>211</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>10</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4">
+        <v>100</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="4">
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="4">
+        <v>200</v>
+      </c>
+      <c r="S33" s="4">
+        <v>2006</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>211</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>212</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4">
+        <v>100</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="4">
+        <v>200</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>212</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>213</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4">
+        <v>100</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4">
+        <v>12</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="4">
+        <v>200</v>
+      </c>
+      <c r="S35" s="4">
+        <v>2007</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>213</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>214</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>16</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2">
+        <v>3</v>
+      </c>
+      <c r="M36" s="4">
+        <v>100</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="4">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="4">
+        <v>200</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>214</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>215</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>18</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2">
+        <v>3</v>
+      </c>
+      <c r="M37" s="4">
+        <v>100</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="4">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="4">
+        <v>200</v>
+      </c>
+      <c r="S37" s="4">
+        <v>2008</v>
+      </c>
+      <c r="T37" s="4">
+        <v>1</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>215</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>216</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2">
+        <v>3</v>
+      </c>
+      <c r="M38" s="4">
+        <v>100</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="4">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="4">
+        <v>200</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>216</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>217</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>22</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2">
+        <v>3</v>
+      </c>
+      <c r="M39" s="4">
+        <v>100</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="4">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="4">
+        <v>200</v>
+      </c>
+      <c r="S39" s="4">
+        <v>2009</v>
+      </c>
+      <c r="T39" s="4">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>217</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>218</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>24</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2">
+        <v>3</v>
+      </c>
+      <c r="M40" s="4">
+        <v>100</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="4">
+        <v>17</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="4">
+        <v>200</v>
+      </c>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>218</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>219</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>26</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="4">
+        <v>100</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="4">
+        <v>18</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="4">
+        <v>200</v>
+      </c>
+      <c r="S41" s="4">
+        <v>2010</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>219</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>220</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
+        <v>28</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2">
+        <v>3</v>
+      </c>
+      <c r="M42" s="4">
+        <v>100</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="4">
+        <v>19</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="4">
+        <v>200</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>220</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>221</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>30</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2">
+        <v>3</v>
+      </c>
+      <c r="M43" s="4">
+        <v>100</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="4">
+        <v>20</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="4">
+        <v>200</v>
+      </c>
+      <c r="S43" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>221</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>222</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2">
+        <v>3</v>
+      </c>
+      <c r="M44" s="4">
+        <v>100</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="4">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="4">
+        <v>200</v>
+      </c>
+      <c r="S44" s="4">
+        <v>2006</v>
+      </c>
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>222</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>223</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>34</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2">
+        <v>3</v>
+      </c>
+      <c r="M45" s="4">
+        <v>100</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="4">
+        <v>11</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="4">
+        <v>200</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>223</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>224</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>36</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2">
+        <v>3</v>
+      </c>
+      <c r="M46" s="4">
+        <v>100</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="4">
+        <v>12</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="4">
+        <v>200</v>
+      </c>
+      <c r="S46" s="4">
+        <v>2007</v>
+      </c>
+      <c r="T46" s="4">
+        <v>1</v>
+      </c>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>224</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>225</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>38</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2">
+        <v>3</v>
+      </c>
+      <c r="M47" s="4">
+        <v>100</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="4">
+        <v>13</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="4">
+        <v>200</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+    </row>
+    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>225</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>226</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>40</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2">
+        <v>3</v>
+      </c>
+      <c r="M48" s="4">
+        <v>100</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="4">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="4">
+        <v>200</v>
+      </c>
+      <c r="S48" s="4">
+        <v>2008</v>
+      </c>
+      <c r="T48" s="4">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>226</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>227</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>42</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2">
+        <v>3</v>
+      </c>
+      <c r="M49" s="4">
+        <v>100</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="4">
+        <v>15</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="4">
+        <v>200</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+    </row>
+    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>227</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
+        <v>228</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>44</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2">
+        <v>3</v>
+      </c>
+      <c r="M50" s="4">
+        <v>100</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="4">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="4">
+        <v>200</v>
+      </c>
+      <c r="S50" s="4">
+        <v>2009</v>
+      </c>
+      <c r="T50" s="4">
+        <v>1</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>228</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>229</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>46</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="4">
+        <v>100</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="4">
+        <v>17</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="4">
+        <v>200</v>
+      </c>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+    </row>
+    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>229</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>230</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
+        <v>48</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2">
+        <v>3</v>
+      </c>
+      <c r="M52" s="4">
+        <v>100</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="4">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="4">
+        <v>200</v>
+      </c>
+      <c r="S52" s="4">
+        <v>2010</v>
+      </c>
+      <c r="T52" s="4">
+        <v>1</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+    </row>
+    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>230</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <v>231</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>50</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
+        <v>3</v>
+      </c>
+      <c r="M53" s="4">
+        <v>100</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="4">
+        <v>19</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="4">
+        <v>200</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+    </row>
+    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>231</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
+        <v>52</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="4">
+        <v>100</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="4">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="4">
+        <v>200</v>
+      </c>
+      <c r="S54" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+    </row>
+    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>301</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2">
+        <v>302</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="4">
+        <v>100</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="4">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="4">
+        <v>100</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>302</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>3</v>
+      </c>
+      <c r="H56" s="2">
+        <v>303</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2">
+        <v>2</v>
+      </c>
+      <c r="M56" s="4">
+        <v>100</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="4">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="4">
+        <v>200</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+    </row>
+    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>303</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>3</v>
+      </c>
+      <c r="H57" s="2">
+        <v>304</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <v>6</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2">
+        <v>2</v>
+      </c>
+      <c r="M57" s="4">
+        <v>100</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="4">
+        <v>6</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="4">
+        <v>300</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+    </row>
+    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>304</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>3</v>
+      </c>
+      <c r="H58" s="2">
+        <v>305</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
+        <v>8</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2">
+        <v>2</v>
+      </c>
+      <c r="M58" s="4">
+        <v>100</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="4">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="4">
+        <v>400</v>
+      </c>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+    </row>
+    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>305</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>306</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
+        <v>10</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2">
+        <v>2</v>
+      </c>
+      <c r="M59" s="4">
+        <v>100</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="4">
+        <v>8</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="4">
+        <v>500</v>
+      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+    </row>
+    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>306</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>307</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
+        <v>12</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2">
+        <v>2</v>
+      </c>
+      <c r="M60" s="4">
+        <v>100</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="4">
+        <v>9</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="4">
+        <v>600</v>
+      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+    </row>
+    <row r="61" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>307</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>308</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2">
+        <v>2</v>
+      </c>
+      <c r="M61" s="4">
+        <v>100</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="4">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="4">
+        <v>700</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+    </row>
+    <row r="62" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>308</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>3</v>
+      </c>
+      <c r="H62" s="2">
+        <v>309</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
+        <v>16</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2">
+        <v>2</v>
+      </c>
+      <c r="M62" s="4">
+        <v>100</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="4">
+        <v>11</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="4">
+        <v>800</v>
+      </c>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+    </row>
+    <row r="63" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>309</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
+        <v>3</v>
+      </c>
+      <c r="H63" s="2">
+        <v>310</v>
+      </c>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
+        <v>18</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2">
+        <v>2</v>
+      </c>
+      <c r="M63" s="4">
+        <v>100</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="4">
+        <v>12</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="4">
+        <v>900</v>
+      </c>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+    </row>
+    <row r="64" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>310</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>3</v>
+      </c>
+      <c r="H64" s="2">
+        <v>311</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2">
+        <v>2</v>
+      </c>
+      <c r="M64" s="4">
+        <v>100</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="4">
+        <v>13</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+    </row>
+    <row r="65" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>311</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>312</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2">
+        <v>22</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2">
+        <v>2</v>
+      </c>
+      <c r="M65" s="4">
+        <v>100</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="4">
+        <v>14</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="4">
+        <v>1100</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+    </row>
+    <row r="66" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>312</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>3</v>
+      </c>
+      <c r="H66" s="2">
+        <v>313</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2">
+        <v>24</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2">
+        <v>2</v>
+      </c>
+      <c r="M66" s="4">
+        <v>100</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="4">
+        <v>15</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="4">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+    </row>
+    <row r="67" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>313</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <v>3</v>
+      </c>
+      <c r="H67" s="2">
+        <v>314</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2">
+        <v>26</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2">
+        <v>2</v>
+      </c>
+      <c r="M67" s="4">
+        <v>100</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="4">
+        <v>16</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="4">
+        <v>1300</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+    </row>
+    <row r="68" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>314</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2">
+        <v>315</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2">
+        <v>28</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2">
+        <v>2</v>
+      </c>
+      <c r="M68" s="4">
+        <v>100</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="4">
+        <v>17</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="4">
+        <v>1400</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+    </row>
+    <row r="69" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>315</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+      <c r="H69" s="2">
+        <v>316</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2">
+        <v>30</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2">
+        <v>2</v>
+      </c>
+      <c r="M69" s="4">
+        <v>100</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="4">
+        <v>18</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="4">
+        <v>1500</v>
+      </c>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+    </row>
+    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>316</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>3</v>
+      </c>
+      <c r="H70" s="2">
+        <v>317</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2">
+        <v>32</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2">
+        <v>2</v>
+      </c>
+      <c r="M70" s="4">
+        <v>100</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="4">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="4">
+        <v>1600</v>
+      </c>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+    </row>
+    <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>317</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>318</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2">
+        <v>34</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2">
+        <v>2</v>
+      </c>
+      <c r="M71" s="4">
+        <v>100</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="4">
+        <v>20</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="4">
+        <v>1700</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+    </row>
+    <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>318</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2">
+        <v>319</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2">
+        <v>36</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2">
+        <v>2</v>
+      </c>
+      <c r="M72" s="4">
+        <v>100</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="4">
+        <v>21</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="4">
+        <v>1800</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+    </row>
+    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>319</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>3</v>
+      </c>
+      <c r="H73" s="2">
+        <v>320</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
+        <v>38</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2">
+        <v>2</v>
+      </c>
+      <c r="M73" s="4">
+        <v>100</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="4">
+        <v>22</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="4">
+        <v>1900</v>
+      </c>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+    </row>
+    <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>320</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>3</v>
+      </c>
+      <c r="H74" s="2">
+        <v>321</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2">
+        <v>40</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2">
+        <v>2</v>
+      </c>
+      <c r="M74" s="4">
+        <v>100</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="4">
+        <v>23</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+    </row>
+    <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>321</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2">
+        <v>322</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2">
+        <v>42</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2">
+        <v>2</v>
+      </c>
+      <c r="M75" s="4">
+        <v>100</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="4">
+        <v>24</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="4">
+        <v>2100</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+    </row>
+    <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>322</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>3</v>
+      </c>
+      <c r="H76" s="2">
+        <v>323</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
+        <v>44</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2">
+        <v>2</v>
+      </c>
+      <c r="M76" s="4">
+        <v>100</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="4">
+        <v>25</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="4">
+        <v>2200</v>
+      </c>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+    </row>
+    <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>323</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>324</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2">
+        <v>46</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2">
+        <v>2</v>
+      </c>
+      <c r="M77" s="4">
+        <v>100</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="4">
+        <v>26</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="4">
+        <v>2300</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+    </row>
+    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>324</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2">
+        <v>325</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2">
+        <v>48</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2">
+        <v>2</v>
+      </c>
+      <c r="M78" s="4">
+        <v>100</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="4">
+        <v>27</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="4">
+        <v>2400</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+    </row>
+    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>325</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>3</v>
+      </c>
+      <c r="H79" s="2">
+        <v>326</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2">
+        <v>50</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2">
+        <v>2</v>
+      </c>
+      <c r="M79" s="4">
+        <v>100</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="4">
+        <v>28</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="4">
+        <v>2500</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+    </row>
+    <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>326</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2">
+        <v>327</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2">
+        <v>52</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2">
+        <v>2</v>
+      </c>
+      <c r="M80" s="4">
+        <v>100</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="4">
+        <v>29</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="4">
+        <v>2600</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+    </row>
+    <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>327</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2">
+        <v>3</v>
+      </c>
+      <c r="H81" s="2">
+        <v>328</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2">
+        <v>54</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2">
+        <v>2</v>
+      </c>
+      <c r="M81" s="4">
+        <v>100</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="4">
+        <v>30</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="4">
+        <v>2700</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+    </row>
+    <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>328</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>3</v>
+      </c>
+      <c r="H82" s="2">
+        <v>329</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2">
+        <v>56</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2">
+        <v>2</v>
+      </c>
+      <c r="M82" s="4">
+        <v>100</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="4">
+        <v>31</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="4">
+        <v>2800</v>
+      </c>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+    </row>
+    <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>329</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>3</v>
+      </c>
+      <c r="H83" s="2">
+        <v>330</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2">
+        <v>58</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2">
+        <v>2</v>
+      </c>
+      <c r="M83" s="4">
+        <v>100</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="4">
+        <v>32</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="4">
+        <v>2900</v>
+      </c>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+    </row>
+    <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>330</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2">
+        <v>3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>331</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2">
+        <v>60</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="4">
+        <v>100</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="4">
+        <v>33</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+    </row>
+    <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>331</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="2">
+        <v>332</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2">
+        <v>62</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2">
+        <v>2</v>
+      </c>
+      <c r="M85" s="4">
+        <v>100</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="4">
+        <v>34</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="4">
+        <v>3100</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+    </row>
+    <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>332</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+      <c r="H86" s="2">
+        <v>333</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2">
+        <v>64</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2">
+        <v>2</v>
+      </c>
+      <c r="M86" s="4">
+        <v>100</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="4">
+        <v>35</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="4">
+        <v>3200</v>
+      </c>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+    </row>
+    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>333</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2">
+        <v>3</v>
+      </c>
+      <c r="H87" s="2">
+        <v>334</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2">
+        <v>66</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2">
+        <v>2</v>
+      </c>
+      <c r="M87" s="4">
+        <v>100</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="4">
+        <v>36</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="4">
+        <v>3300</v>
+      </c>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+    </row>
+    <row r="88" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>334</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>335</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2">
+        <v>68</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2">
+        <v>2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>100</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="4">
+        <v>37</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="4">
+        <v>3400</v>
+      </c>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+    </row>
+    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>335</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>3</v>
+      </c>
+      <c r="H89" s="2">
+        <v>336</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2">
+        <v>70</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2">
+        <v>2</v>
+      </c>
+      <c r="M89" s="4">
+        <v>100</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="4">
+        <v>38</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="4">
+        <v>3500</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+    </row>
+    <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>336</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>3</v>
+      </c>
+      <c r="H90" s="2">
+        <v>337</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2">
+        <v>72</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2">
+        <v>2</v>
+      </c>
+      <c r="M90" s="4">
+        <v>100</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="4">
+        <v>39</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="4">
+        <v>3600</v>
+      </c>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+    </row>
+    <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>337</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>3</v>
+      </c>
+      <c r="H91" s="2">
+        <v>338</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2">
+        <v>74</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2">
+        <v>2</v>
+      </c>
+      <c r="M91" s="4">
+        <v>100</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="4">
+        <v>40</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="4">
+        <v>3700</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+    </row>
+    <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>338</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>3</v>
+      </c>
+      <c r="H92" s="2">
+        <v>339</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2">
+        <v>76</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2">
+        <v>2</v>
+      </c>
+      <c r="M92" s="4">
+        <v>100</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="4">
+        <v>41</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="4">
+        <v>3800</v>
+      </c>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+    </row>
+    <row r="93" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>339</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>3</v>
+      </c>
+      <c r="H93" s="2">
+        <v>340</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2">
+        <v>2</v>
+      </c>
+      <c r="M93" s="4">
+        <v>100</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="4">
+        <v>42</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="4">
+        <v>3900</v>
+      </c>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+    </row>
+    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>340</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>3</v>
+      </c>
+      <c r="H94" s="2">
+        <v>341</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2">
+        <v>2</v>
+      </c>
+      <c r="M94" s="4">
+        <v>100</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="4">
+        <v>43</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="4">
+        <v>4000</v>
+      </c>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+    </row>
+    <row r="95" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>341</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95" s="2">
+        <v>342</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2">
+        <v>82</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2">
+        <v>2</v>
+      </c>
+      <c r="M95" s="4">
+        <v>100</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="4">
+        <v>44</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="4">
+        <v>4100</v>
+      </c>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+    </row>
+    <row r="96" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>342</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>3</v>
+      </c>
+      <c r="H96" s="2">
+        <v>343</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2">
+        <v>84</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2">
+        <v>2</v>
+      </c>
+      <c r="M96" s="4">
+        <v>100</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="4">
+        <v>45</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="4">
+        <v>4200</v>
+      </c>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+    </row>
+    <row r="97" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>343</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>344</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2">
+        <v>86</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2">
+        <v>2</v>
+      </c>
+      <c r="M97" s="4">
+        <v>100</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="4">
+        <v>46</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="4">
+        <v>4300</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+    </row>
+    <row r="98" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>344</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2">
+        <v>3</v>
+      </c>
+      <c r="H98" s="2">
+        <v>345</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2">
+        <v>88</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2">
+        <v>2</v>
+      </c>
+      <c r="M98" s="4">
+        <v>100</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="4">
+        <v>47</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="4">
+        <v>4400</v>
+      </c>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+    </row>
+    <row r="99" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>345</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>3</v>
+      </c>
+      <c r="H99" s="2">
+        <v>346</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2">
+        <v>90</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2">
+        <v>2</v>
+      </c>
+      <c r="M99" s="4">
+        <v>100</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="4">
+        <v>48</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="4">
+        <v>4500</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+    </row>
+    <row r="100" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>346</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>3</v>
+      </c>
+      <c r="H100" s="2">
+        <v>347</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2">
+        <v>92</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2">
+        <v>2</v>
+      </c>
+      <c r="M100" s="4">
+        <v>100</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="4">
+        <v>49</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="4">
+        <v>4600</v>
+      </c>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+    </row>
+    <row r="101" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>347</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>3</v>
+      </c>
+      <c r="H101" s="2">
+        <v>348</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2">
+        <v>94</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2">
+        <v>2</v>
+      </c>
+      <c r="M101" s="4">
+        <v>100</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="4">
+        <v>50</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="4">
+        <v>4700</v>
+      </c>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+    </row>
+    <row r="102" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>348</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2">
+        <v>3</v>
+      </c>
+      <c r="H102" s="2">
+        <v>349</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2">
+        <v>96</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2">
+        <v>2</v>
+      </c>
+      <c r="M102" s="4">
+        <v>100</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="4">
+        <v>51</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="4">
+        <v>4800</v>
+      </c>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+    </row>
+    <row r="103" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>349</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>3</v>
+      </c>
+      <c r="H103" s="2">
+        <v>350</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2">
+        <v>98</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2">
+        <v>2</v>
+      </c>
+      <c r="M103" s="4">
+        <v>100</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="4">
+        <v>52</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="4">
+        <v>4900</v>
+      </c>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+    </row>
+    <row r="104" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>350</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>3</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2">
+        <v>100</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2">
+        <v>2</v>
+      </c>
+      <c r="M104" s="4">
+        <v>100</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="4">
+        <v>53</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="4">
+        <v>5000</v>
+      </c>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+    </row>
+    <row r="105" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>401</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>4</v>
+      </c>
+      <c r="H105" s="2">
+        <v>402</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2">
+        <v>4</v>
+      </c>
+      <c r="M105" s="4">
+        <v>100</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="4">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S105" s="4">
+        <v>2</v>
+      </c>
+      <c r="T105" s="4">
+        <v>10</v>
+      </c>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+    </row>
+    <row r="106" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>402</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2">
+        <v>4</v>
+      </c>
+      <c r="H106" s="2">
+        <v>403</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2">
+        <v>4</v>
+      </c>
+      <c r="M106" s="4">
+        <v>100</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="4">
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="4">
+        <v>2000</v>
+      </c>
+      <c r="S106" s="2">
+        <v>2</v>
+      </c>
+      <c r="T106" s="2">
+        <v>20</v>
+      </c>
+      <c r="U106" s="4">
+        <v>2002</v>
+      </c>
+      <c r="V106" s="4">
+        <v>1</v>
+      </c>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+    </row>
+    <row r="107" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>403</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>4</v>
+      </c>
+      <c r="H107" s="2">
+        <v>404</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2">
+        <v>4</v>
+      </c>
+      <c r="M107" s="4">
+        <v>100</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="4">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="4">
+        <v>3000</v>
+      </c>
+      <c r="S107" s="4">
+        <v>2</v>
+      </c>
+      <c r="T107" s="4">
+        <v>30</v>
+      </c>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+    </row>
+    <row r="108" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>404</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2">
+        <v>4</v>
+      </c>
+      <c r="H108" s="2">
+        <v>405</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2">
+        <v>4</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2">
+        <v>4</v>
+      </c>
+      <c r="M108" s="4">
+        <v>100</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="4">
+        <v>4</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="4">
+        <v>4000</v>
+      </c>
+      <c r="S108" s="2">
+        <v>2</v>
+      </c>
+      <c r="T108" s="2">
+        <v>40</v>
+      </c>
+      <c r="U108" s="4">
+        <v>2003</v>
+      </c>
+      <c r="V108" s="4">
+        <v>1</v>
+      </c>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+    </row>
+    <row r="109" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>405</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2">
+        <v>4</v>
+      </c>
+      <c r="H109" s="2">
+        <v>406</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2">
+        <v>5</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2">
+        <v>4</v>
+      </c>
+      <c r="M109" s="4">
+        <v>100</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="4">
+        <v>5</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="4">
+        <v>5000</v>
+      </c>
+      <c r="S109" s="4">
+        <v>2</v>
+      </c>
+      <c r="T109" s="4">
+        <v>50</v>
+      </c>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+    </row>
+    <row r="110" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>406</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2">
+        <v>4</v>
+      </c>
+      <c r="H110" s="2">
+        <v>407</v>
+      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2">
+        <v>6</v>
+      </c>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2">
+        <v>4</v>
+      </c>
+      <c r="M110" s="4">
+        <v>100</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="4">
+        <v>6</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="4">
+        <v>6000</v>
+      </c>
+      <c r="S110" s="2">
+        <v>2</v>
+      </c>
+      <c r="T110" s="2">
+        <v>60</v>
+      </c>
+      <c r="U110" s="4">
+        <v>2004</v>
+      </c>
+      <c r="V110" s="4">
+        <v>1</v>
+      </c>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+    </row>
+    <row r="111" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>407</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2">
+        <v>4</v>
+      </c>
+      <c r="H111" s="2">
+        <v>408</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2">
+        <v>7</v>
+      </c>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2">
+        <v>4</v>
+      </c>
+      <c r="M111" s="4">
+        <v>100</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="4">
+        <v>7</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="4">
+        <v>7000</v>
+      </c>
+      <c r="S111" s="4">
+        <v>2</v>
+      </c>
+      <c r="T111" s="4">
+        <v>70</v>
+      </c>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+    </row>
+    <row r="112" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>408</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2">
+        <v>4</v>
+      </c>
+      <c r="H112" s="2">
+        <v>409</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2">
+        <v>8</v>
+      </c>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2">
+        <v>4</v>
+      </c>
+      <c r="M112" s="4">
+        <v>100</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="4">
+        <v>8</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="4">
+        <v>8000</v>
+      </c>
+      <c r="S112" s="2">
+        <v>2</v>
+      </c>
+      <c r="T112" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" s="4">
+        <v>2005</v>
+      </c>
+      <c r="V112" s="4">
+        <v>1</v>
+      </c>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+    </row>
+    <row r="113" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>409</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2">
+        <v>4</v>
+      </c>
+      <c r="H113" s="2">
+        <v>410</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2">
+        <v>9</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2">
+        <v>4</v>
+      </c>
+      <c r="M113" s="4">
+        <v>100</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="4">
+        <v>9</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="4">
+        <v>9000</v>
+      </c>
+      <c r="S113" s="4">
+        <v>2</v>
+      </c>
+      <c r="T113" s="4">
+        <v>90</v>
+      </c>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+    </row>
+    <row r="114" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>410</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2">
+        <v>4</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2">
+        <v>10</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2">
+        <v>4</v>
+      </c>
+      <c r="M114" s="4">
+        <v>100</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="4">
+        <v>10</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="4">
+        <v>10000</v>
+      </c>
+      <c r="S114" s="2">
+        <v>2</v>
+      </c>
+      <c r="T114" s="2">
+        <v>100</v>
+      </c>
+      <c r="U114" s="4">
+        <v>2006</v>
+      </c>
+      <c r="V114" s="4">
+        <v>1</v>
+      </c>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1952,33 +6705,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1986,42 +6730,51 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/achievement.xlsx
+++ b/src/achievement.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C25743-67ED-42FC-A390-5BA638403900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -240,11 +239,26 @@
     <t>order</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>水果收藏家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏水果{1}种</t>
+  </si>
+  <si>
+    <t>水果收藏家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果收藏家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,43 +593,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+      <selection activeCell="P22" sqref="P22:Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +684,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -753,7 +767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -836,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -863,9 +877,7 @@
       <c r="J4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2">
         <v>1</v>
       </c>
@@ -893,7 +905,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -916,9 +928,7 @@
       <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2">
         <v>1</v>
       </c>
@@ -950,7 +960,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -973,9 +983,7 @@
       <c r="J6" s="2">
         <v>15</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2">
         <v>1</v>
       </c>
@@ -1001,7 +1009,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -1024,9 +1032,7 @@
       <c r="J7" s="2">
         <v>20</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2">
         <v>1</v>
       </c>
@@ -1058,7 +1064,7 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -1081,9 +1087,7 @@
       <c r="J8" s="2">
         <v>25</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2">
         <v>1</v>
       </c>
@@ -1111,7 +1115,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -1134,9 +1138,7 @@
       <c r="J9" s="2">
         <v>30</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>1</v>
       </c>
@@ -1168,7 +1170,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -1191,9 +1193,7 @@
       <c r="J10" s="2">
         <v>35</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -1244,9 +1244,7 @@
       <c r="J11" s="2">
         <v>40</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>1</v>
       </c>
@@ -1278,7 +1276,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1301,9 +1299,7 @@
       <c r="J12" s="2">
         <v>45</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>1</v>
       </c>
@@ -1331,7 +1327,7 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1354,9 +1350,7 @@
       <c r="J13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2">
         <v>1</v>
       </c>
@@ -1388,7 +1382,7 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>111</v>
       </c>
@@ -1411,9 +1405,7 @@
       <c r="J14" s="2">
         <v>55</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2">
         <v>1</v>
       </c>
@@ -1441,7 +1433,7 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -1464,9 +1456,7 @@
       <c r="J15" s="2">
         <v>60</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2">
         <v>1</v>
       </c>
@@ -1498,7 +1488,7 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -1521,9 +1511,7 @@
       <c r="J16" s="2">
         <v>65</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2">
         <v>1</v>
       </c>
@@ -1551,7 +1539,7 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -1574,9 +1562,7 @@
       <c r="J17" s="2">
         <v>70</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2">
         <v>1</v>
       </c>
@@ -1608,7 +1594,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -1631,9 +1617,7 @@
       <c r="J18" s="2">
         <v>75</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2">
         <v>1</v>
       </c>
@@ -1661,7 +1645,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1684,9 +1668,7 @@
       <c r="J19" s="2">
         <v>80</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2">
         <v>1</v>
       </c>
@@ -1718,7 +1700,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1741,9 +1723,7 @@
       <c r="J20" s="2">
         <v>85</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>1</v>
       </c>
@@ -1771,7 +1751,7 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1794,9 +1774,7 @@
       <c r="J21" s="2">
         <v>90</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2">
         <v>1</v>
       </c>
@@ -1828,7 +1806,7 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1851,9 +1829,7 @@
       <c r="J22" s="2">
         <v>95</v>
       </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2">
         <v>1</v>
       </c>
@@ -1881,7 +1857,7 @@
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1902,9 +1878,7 @@
       <c r="J23" s="2">
         <v>100</v>
       </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2">
         <v>1</v>
       </c>
@@ -1936,7 +1910,7 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>201</v>
       </c>
@@ -1961,7 +1935,9 @@
       <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
       <c r="L24" s="2">
         <v>3</v>
       </c>
@@ -1989,7 +1965,7 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>202</v>
       </c>
@@ -2012,7 +1988,9 @@
       <c r="J25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
       <c r="L25" s="2">
         <v>3</v>
       </c>
@@ -2044,7 +2022,7 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>203</v>
       </c>
@@ -2067,7 +2045,9 @@
       <c r="J26" s="2">
         <v>3</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
       <c r="L26" s="2">
         <v>3</v>
       </c>
@@ -2093,7 +2073,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>204</v>
       </c>
@@ -2116,7 +2096,9 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
       <c r="L27" s="2">
         <v>3</v>
       </c>
@@ -2148,7 +2130,7 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>205</v>
       </c>
@@ -2171,7 +2153,9 @@
       <c r="J28" s="2">
         <v>5</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
       <c r="L28" s="2">
         <v>3</v>
       </c>
@@ -2199,7 +2183,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>206</v>
       </c>
@@ -2222,7 +2206,9 @@
       <c r="J29" s="2">
         <v>6</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
       <c r="L29" s="2">
         <v>3</v>
       </c>
@@ -2254,7 +2240,7 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>207</v>
       </c>
@@ -2277,7 +2263,9 @@
       <c r="J30" s="2">
         <v>7</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
       <c r="L30" s="2">
         <v>3</v>
       </c>
@@ -2305,7 +2293,7 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>208</v>
       </c>
@@ -2328,7 +2316,9 @@
       <c r="J31" s="2">
         <v>8</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
       <c r="L31" s="2">
         <v>3</v>
       </c>
@@ -2360,7 +2350,7 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>209</v>
       </c>
@@ -2383,7 +2373,9 @@
       <c r="J32" s="2">
         <v>9</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
       <c r="L32" s="2">
         <v>3</v>
       </c>
@@ -2411,7 +2403,7 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>210</v>
       </c>
@@ -2434,7 +2426,9 @@
       <c r="J33" s="2">
         <v>10</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>2</v>
+      </c>
       <c r="L33" s="2">
         <v>3</v>
       </c>
@@ -2466,7 +2460,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>211</v>
       </c>
@@ -2489,7 +2483,9 @@
       <c r="J34" s="2">
         <v>12</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
       <c r="L34" s="2">
         <v>3</v>
       </c>
@@ -2517,7 +2513,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>212</v>
       </c>
@@ -2540,7 +2536,9 @@
       <c r="J35" s="2">
         <v>14</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
       <c r="L35" s="2">
         <v>3</v>
       </c>
@@ -2572,7 +2570,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>213</v>
       </c>
@@ -2595,7 +2593,9 @@
       <c r="J36" s="2">
         <v>16</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
       <c r="L36" s="2">
         <v>3</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>214</v>
       </c>
@@ -2646,7 +2646,9 @@
       <c r="J37" s="2">
         <v>18</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>2</v>
+      </c>
       <c r="L37" s="2">
         <v>3</v>
       </c>
@@ -2678,7 +2680,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>215</v>
       </c>
@@ -2701,7 +2703,9 @@
       <c r="J38" s="2">
         <v>20</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>2</v>
+      </c>
       <c r="L38" s="2">
         <v>3</v>
       </c>
@@ -2729,7 +2733,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>216</v>
       </c>
@@ -2752,7 +2756,9 @@
       <c r="J39" s="2">
         <v>22</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>2</v>
+      </c>
       <c r="L39" s="2">
         <v>3</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>217</v>
       </c>
@@ -2807,7 +2813,9 @@
       <c r="J40" s="2">
         <v>24</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
       <c r="L40" s="2">
         <v>3</v>
       </c>
@@ -2835,7 +2843,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>218</v>
       </c>
@@ -2858,7 +2866,9 @@
       <c r="J41" s="2">
         <v>26</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
       <c r="L41" s="2">
         <v>3</v>
       </c>
@@ -2890,7 +2900,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>219</v>
       </c>
@@ -2913,7 +2923,9 @@
       <c r="J42" s="2">
         <v>28</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
       <c r="L42" s="2">
         <v>3</v>
       </c>
@@ -2941,7 +2953,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>220</v>
       </c>
@@ -2964,7 +2976,9 @@
       <c r="J43" s="2">
         <v>30</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>2</v>
+      </c>
       <c r="L43" s="2">
         <v>3</v>
       </c>
@@ -2996,7 +3010,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>221</v>
       </c>
@@ -3019,7 +3033,9 @@
       <c r="J44" s="2">
         <v>32</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
       <c r="L44" s="2">
         <v>3</v>
       </c>
@@ -3051,7 +3067,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>222</v>
       </c>
@@ -3074,7 +3090,9 @@
       <c r="J45" s="2">
         <v>34</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
       <c r="L45" s="2">
         <v>3</v>
       </c>
@@ -3102,7 +3120,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>223</v>
       </c>
@@ -3125,7 +3143,9 @@
       <c r="J46" s="2">
         <v>36</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
       <c r="L46" s="2">
         <v>3</v>
       </c>
@@ -3157,7 +3177,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>224</v>
       </c>
@@ -3180,7 +3200,9 @@
       <c r="J47" s="2">
         <v>38</v>
       </c>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
       <c r="L47" s="2">
         <v>3</v>
       </c>
@@ -3208,7 +3230,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>225</v>
       </c>
@@ -3231,7 +3253,9 @@
       <c r="J48" s="2">
         <v>40</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
       <c r="L48" s="2">
         <v>3</v>
       </c>
@@ -3263,7 +3287,7 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>226</v>
       </c>
@@ -3286,7 +3310,9 @@
       <c r="J49" s="2">
         <v>42</v>
       </c>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
       <c r="L49" s="2">
         <v>3</v>
       </c>
@@ -3314,7 +3340,7 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>227</v>
       </c>
@@ -3337,7 +3363,9 @@
       <c r="J50" s="2">
         <v>44</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <v>2</v>
+      </c>
       <c r="L50" s="2">
         <v>3</v>
       </c>
@@ -3369,7 +3397,7 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>228</v>
       </c>
@@ -3392,7 +3420,9 @@
       <c r="J51" s="2">
         <v>46</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
       <c r="L51" s="2">
         <v>3</v>
       </c>
@@ -3420,7 +3450,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>229</v>
       </c>
@@ -3443,7 +3473,9 @@
       <c r="J52" s="2">
         <v>48</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2">
+        <v>2</v>
+      </c>
       <c r="L52" s="2">
         <v>3</v>
       </c>
@@ -3475,7 +3507,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>230</v>
       </c>
@@ -3498,7 +3530,9 @@
       <c r="J53" s="2">
         <v>50</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
       <c r="L53" s="2">
         <v>3</v>
       </c>
@@ -3526,7 +3560,7 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>231</v>
       </c>
@@ -3547,7 +3581,9 @@
       <c r="J54" s="2">
         <v>52</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
       <c r="L54" s="2">
         <v>2</v>
       </c>
@@ -3579,7 +3615,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>301</v>
       </c>
@@ -3632,7 +3668,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>302</v>
       </c>
@@ -3683,7 +3719,7 @@
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>303</v>
       </c>
@@ -3734,7 +3770,7 @@
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>304</v>
       </c>
@@ -3785,7 +3821,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>305</v>
       </c>
@@ -3836,7 +3872,7 @@
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>306</v>
       </c>
@@ -3887,7 +3923,7 @@
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>307</v>
       </c>
@@ -3938,7 +3974,7 @@
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>308</v>
       </c>
@@ -3989,7 +4025,7 @@
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>309</v>
       </c>
@@ -4040,7 +4076,7 @@
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>310</v>
       </c>
@@ -4091,7 +4127,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>311</v>
       </c>
@@ -4142,7 +4178,7 @@
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>312</v>
       </c>
@@ -4193,7 +4229,7 @@
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>313</v>
       </c>
@@ -4244,7 +4280,7 @@
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>314</v>
       </c>
@@ -4295,7 +4331,7 @@
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>315</v>
       </c>
@@ -4346,7 +4382,7 @@
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>316</v>
       </c>
@@ -4397,7 +4433,7 @@
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>317</v>
       </c>
@@ -4448,7 +4484,7 @@
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>318</v>
       </c>
@@ -4499,7 +4535,7 @@
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>319</v>
       </c>
@@ -4550,7 +4586,7 @@
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>320</v>
       </c>
@@ -4601,7 +4637,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>321</v>
       </c>
@@ -4652,7 +4688,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>322</v>
       </c>
@@ -4703,7 +4739,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>323</v>
       </c>
@@ -4754,7 +4790,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>324</v>
       </c>
@@ -4805,7 +4841,7 @@
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>325</v>
       </c>
@@ -4856,7 +4892,7 @@
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
     </row>
-    <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>326</v>
       </c>
@@ -4907,7 +4943,7 @@
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
     </row>
-    <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>327</v>
       </c>
@@ -4958,7 +4994,7 @@
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>328</v>
       </c>
@@ -5009,7 +5045,7 @@
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>329</v>
       </c>
@@ -5060,7 +5096,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>330</v>
       </c>
@@ -5111,7 +5147,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>331</v>
       </c>
@@ -5162,7 +5198,7 @@
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>332</v>
       </c>
@@ -5213,7 +5249,7 @@
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>333</v>
       </c>
@@ -5264,7 +5300,7 @@
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>334</v>
       </c>
@@ -5315,7 +5351,7 @@
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>335</v>
       </c>
@@ -5366,7 +5402,7 @@
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>336</v>
       </c>
@@ -5417,7 +5453,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>337</v>
       </c>
@@ -5468,7 +5504,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>338</v>
       </c>
@@ -5519,7 +5555,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>339</v>
       </c>
@@ -5570,7 +5606,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
     </row>
-    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>340</v>
       </c>
@@ -5621,7 +5657,7 @@
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>341</v>
       </c>
@@ -5672,7 +5708,7 @@
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>342</v>
       </c>
@@ -5723,7 +5759,7 @@
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>343</v>
       </c>
@@ -5774,7 +5810,7 @@
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>344</v>
       </c>
@@ -5825,7 +5861,7 @@
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>345</v>
       </c>
@@ -5876,7 +5912,7 @@
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>346</v>
       </c>
@@ -5927,7 +5963,7 @@
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
     </row>
-    <row r="101" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>347</v>
       </c>
@@ -5978,7 +6014,7 @@
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>348</v>
       </c>
@@ -6029,7 +6065,7 @@
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>349</v>
       </c>
@@ -6080,7 +6116,7 @@
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>350</v>
       </c>
@@ -6129,7 +6165,7 @@
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>401</v>
       </c>
@@ -6154,7 +6190,9 @@
       <c r="J105" s="2">
         <v>1</v>
       </c>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2">
+        <v>2</v>
+      </c>
       <c r="L105" s="2">
         <v>4</v>
       </c>
@@ -6186,7 +6224,7 @@
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>402</v>
       </c>
@@ -6209,7 +6247,9 @@
       <c r="J106" s="2">
         <v>2</v>
       </c>
-      <c r="K106" s="2"/>
+      <c r="K106" s="2">
+        <v>2</v>
+      </c>
       <c r="L106" s="2">
         <v>4</v>
       </c>
@@ -6245,7 +6285,7 @@
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>403</v>
       </c>
@@ -6268,7 +6308,9 @@
       <c r="J107" s="2">
         <v>3</v>
       </c>
-      <c r="K107" s="2"/>
+      <c r="K107" s="2">
+        <v>2</v>
+      </c>
       <c r="L107" s="2">
         <v>4</v>
       </c>
@@ -6298,7 +6340,7 @@
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>404</v>
       </c>
@@ -6321,7 +6363,9 @@
       <c r="J108" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="2"/>
+      <c r="K108" s="2">
+        <v>2</v>
+      </c>
       <c r="L108" s="2">
         <v>4</v>
       </c>
@@ -6357,7 +6401,7 @@
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>405</v>
       </c>
@@ -6380,7 +6424,9 @@
       <c r="J109" s="2">
         <v>5</v>
       </c>
-      <c r="K109" s="2"/>
+      <c r="K109" s="2">
+        <v>2</v>
+      </c>
       <c r="L109" s="2">
         <v>4</v>
       </c>
@@ -6412,7 +6458,7 @@
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>406</v>
       </c>
@@ -6435,7 +6481,9 @@
       <c r="J110" s="2">
         <v>6</v>
       </c>
-      <c r="K110" s="2"/>
+      <c r="K110" s="2">
+        <v>2</v>
+      </c>
       <c r="L110" s="2">
         <v>4</v>
       </c>
@@ -6471,7 +6519,7 @@
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>407</v>
       </c>
@@ -6494,7 +6542,9 @@
       <c r="J111" s="2">
         <v>7</v>
       </c>
-      <c r="K111" s="2"/>
+      <c r="K111" s="2">
+        <v>2</v>
+      </c>
       <c r="L111" s="2">
         <v>4</v>
       </c>
@@ -6526,7 +6576,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>408</v>
       </c>
@@ -6549,7 +6599,9 @@
       <c r="J112" s="2">
         <v>8</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2">
+        <v>2</v>
+      </c>
       <c r="L112" s="2">
         <v>4</v>
       </c>
@@ -6585,7 +6637,7 @@
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>409</v>
       </c>
@@ -6608,7 +6660,9 @@
       <c r="J113" s="2">
         <v>9</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2">
+        <v>2</v>
+      </c>
       <c r="L113" s="2">
         <v>4</v>
       </c>
@@ -6640,7 +6694,7 @@
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>410</v>
       </c>
@@ -6661,7 +6715,9 @@
       <c r="J114" s="2">
         <v>10</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2">
+        <v>2</v>
+      </c>
       <c r="L114" s="2">
         <v>4</v>
       </c>
@@ -6696,6 +6752,2046 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>501</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2">
+        <v>5</v>
+      </c>
+      <c r="H115" s="2">
+        <v>502</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>3</v>
+      </c>
+      <c r="L115" s="2">
+        <v>5</v>
+      </c>
+      <c r="M115" s="4">
+        <v>100</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="4">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S115" s="4">
+        <v>2</v>
+      </c>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>502</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2">
+        <v>5</v>
+      </c>
+      <c r="H116" s="2">
+        <v>503</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2">
+        <v>2</v>
+      </c>
+      <c r="K116" s="2">
+        <v>3</v>
+      </c>
+      <c r="L116" s="2">
+        <v>5</v>
+      </c>
+      <c r="M116" s="4">
+        <v>100</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="4">
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S116" s="4">
+        <v>2</v>
+      </c>
+      <c r="T116" s="2"/>
+      <c r="U116" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>503</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2">
+        <v>5</v>
+      </c>
+      <c r="H117" s="2">
+        <v>504</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2">
+        <v>3</v>
+      </c>
+      <c r="K117" s="2">
+        <v>3</v>
+      </c>
+      <c r="L117" s="2">
+        <v>5</v>
+      </c>
+      <c r="M117" s="4">
+        <v>100</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="4">
+        <v>3</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S117" s="4">
+        <v>2</v>
+      </c>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>504</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2">
+        <v>5</v>
+      </c>
+      <c r="H118" s="2">
+        <v>505</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2">
+        <v>4</v>
+      </c>
+      <c r="K118" s="2">
+        <v>3</v>
+      </c>
+      <c r="L118" s="2">
+        <v>5</v>
+      </c>
+      <c r="M118" s="4">
+        <v>100</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="4">
+        <v>4</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S118" s="4">
+        <v>2</v>
+      </c>
+      <c r="T118" s="2"/>
+      <c r="U118" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>505</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2">
+        <v>5</v>
+      </c>
+      <c r="H119" s="2">
+        <v>506</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2">
+        <v>5</v>
+      </c>
+      <c r="K119" s="2">
+        <v>3</v>
+      </c>
+      <c r="L119" s="2">
+        <v>5</v>
+      </c>
+      <c r="M119" s="4">
+        <v>100</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="4">
+        <v>5</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S119" s="4">
+        <v>2</v>
+      </c>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>506</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2">
+        <v>5</v>
+      </c>
+      <c r="H120" s="2">
+        <v>507</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2">
+        <v>6</v>
+      </c>
+      <c r="K120" s="2">
+        <v>3</v>
+      </c>
+      <c r="L120" s="2">
+        <v>5</v>
+      </c>
+      <c r="M120" s="4">
+        <v>100</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="4">
+        <v>6</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S120" s="4">
+        <v>2</v>
+      </c>
+      <c r="T120" s="2"/>
+      <c r="U120" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>507</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2">
+        <v>5</v>
+      </c>
+      <c r="H121" s="2">
+        <v>508</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2">
+        <v>7</v>
+      </c>
+      <c r="K121" s="2">
+        <v>3</v>
+      </c>
+      <c r="L121" s="2">
+        <v>5</v>
+      </c>
+      <c r="M121" s="4">
+        <v>100</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="4">
+        <v>7</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S121" s="4">
+        <v>2</v>
+      </c>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>508</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2">
+        <v>5</v>
+      </c>
+      <c r="H122" s="2">
+        <v>509</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2">
+        <v>8</v>
+      </c>
+      <c r="K122" s="2">
+        <v>3</v>
+      </c>
+      <c r="L122" s="2">
+        <v>5</v>
+      </c>
+      <c r="M122" s="4">
+        <v>100</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="4">
+        <v>8</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S122" s="4">
+        <v>2</v>
+      </c>
+      <c r="T122" s="2"/>
+      <c r="U122" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>509</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2">
+        <v>5</v>
+      </c>
+      <c r="H123" s="2">
+        <v>510</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2">
+        <v>9</v>
+      </c>
+      <c r="K123" s="2">
+        <v>3</v>
+      </c>
+      <c r="L123" s="2">
+        <v>5</v>
+      </c>
+      <c r="M123" s="4">
+        <v>100</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="4">
+        <v>9</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S123" s="4">
+        <v>2</v>
+      </c>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>510</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2">
+        <v>5</v>
+      </c>
+      <c r="H124" s="2">
+        <v>511</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2">
+        <v>10</v>
+      </c>
+      <c r="K124" s="2">
+        <v>3</v>
+      </c>
+      <c r="L124" s="2">
+        <v>5</v>
+      </c>
+      <c r="M124" s="4">
+        <v>100</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="4">
+        <v>10</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S124" s="4">
+        <v>2</v>
+      </c>
+      <c r="T124" s="2"/>
+      <c r="U124" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>511</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2">
+        <v>5</v>
+      </c>
+      <c r="H125" s="2">
+        <v>512</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2">
+        <v>11</v>
+      </c>
+      <c r="K125" s="2">
+        <v>3</v>
+      </c>
+      <c r="L125" s="2">
+        <v>5</v>
+      </c>
+      <c r="M125" s="4">
+        <v>100</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="4">
+        <v>11</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S125" s="4">
+        <v>2</v>
+      </c>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>512</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2">
+        <v>5</v>
+      </c>
+      <c r="H126" s="2">
+        <v>513</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2">
+        <v>12</v>
+      </c>
+      <c r="K126" s="2">
+        <v>3</v>
+      </c>
+      <c r="L126" s="2">
+        <v>5</v>
+      </c>
+      <c r="M126" s="4">
+        <v>100</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="4">
+        <v>12</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S126" s="4">
+        <v>2</v>
+      </c>
+      <c r="T126" s="2"/>
+      <c r="U126" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>513</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2">
+        <v>5</v>
+      </c>
+      <c r="H127" s="2">
+        <v>514</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2">
+        <v>13</v>
+      </c>
+      <c r="K127" s="2">
+        <v>3</v>
+      </c>
+      <c r="L127" s="2">
+        <v>5</v>
+      </c>
+      <c r="M127" s="4">
+        <v>100</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="4">
+        <v>13</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S127" s="4">
+        <v>2</v>
+      </c>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>514</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2">
+        <v>5</v>
+      </c>
+      <c r="H128" s="2">
+        <v>515</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2">
+        <v>14</v>
+      </c>
+      <c r="K128" s="2">
+        <v>3</v>
+      </c>
+      <c r="L128" s="2">
+        <v>5</v>
+      </c>
+      <c r="M128" s="4">
+        <v>100</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="4">
+        <v>14</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S128" s="4">
+        <v>2</v>
+      </c>
+      <c r="T128" s="2"/>
+      <c r="U128" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>515</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2">
+        <v>5</v>
+      </c>
+      <c r="H129" s="2">
+        <v>516</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2">
+        <v>15</v>
+      </c>
+      <c r="K129" s="2">
+        <v>3</v>
+      </c>
+      <c r="L129" s="2">
+        <v>5</v>
+      </c>
+      <c r="M129" s="4">
+        <v>100</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="4">
+        <v>15</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S129" s="4">
+        <v>2</v>
+      </c>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>516</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2">
+        <v>5</v>
+      </c>
+      <c r="H130" s="2">
+        <v>517</v>
+      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2">
+        <v>16</v>
+      </c>
+      <c r="K130" s="2">
+        <v>3</v>
+      </c>
+      <c r="L130" s="2">
+        <v>5</v>
+      </c>
+      <c r="M130" s="4">
+        <v>100</v>
+      </c>
+      <c r="N130" s="2"/>
+      <c r="O130" s="4">
+        <v>16</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S130" s="4">
+        <v>2</v>
+      </c>
+      <c r="T130" s="2"/>
+      <c r="U130" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>517</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2">
+        <v>5</v>
+      </c>
+      <c r="H131" s="2">
+        <v>518</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2">
+        <v>17</v>
+      </c>
+      <c r="K131" s="2">
+        <v>3</v>
+      </c>
+      <c r="L131" s="2">
+        <v>5</v>
+      </c>
+      <c r="M131" s="4">
+        <v>100</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="4">
+        <v>17</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S131" s="4">
+        <v>2</v>
+      </c>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>518</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2">
+        <v>5</v>
+      </c>
+      <c r="H132" s="2">
+        <v>519</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2">
+        <v>18</v>
+      </c>
+      <c r="K132" s="2">
+        <v>3</v>
+      </c>
+      <c r="L132" s="2">
+        <v>5</v>
+      </c>
+      <c r="M132" s="4">
+        <v>100</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="4">
+        <v>18</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S132" s="4">
+        <v>2</v>
+      </c>
+      <c r="T132" s="2"/>
+      <c r="U132" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>519</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2">
+        <v>5</v>
+      </c>
+      <c r="H133" s="2">
+        <v>520</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2">
+        <v>19</v>
+      </c>
+      <c r="K133" s="2">
+        <v>3</v>
+      </c>
+      <c r="L133" s="2">
+        <v>5</v>
+      </c>
+      <c r="M133" s="4">
+        <v>100</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="4">
+        <v>19</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S133" s="4">
+        <v>2</v>
+      </c>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>520</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2">
+        <v>5</v>
+      </c>
+      <c r="H134" s="2">
+        <v>521</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2">
+        <v>20</v>
+      </c>
+      <c r="K134" s="2">
+        <v>3</v>
+      </c>
+      <c r="L134" s="2">
+        <v>5</v>
+      </c>
+      <c r="M134" s="4">
+        <v>100</v>
+      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="4">
+        <v>20</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S134" s="4">
+        <v>2</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>521</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2">
+        <v>5</v>
+      </c>
+      <c r="H135" s="2">
+        <v>522</v>
+      </c>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2">
+        <v>21</v>
+      </c>
+      <c r="K135" s="2">
+        <v>3</v>
+      </c>
+      <c r="L135" s="2">
+        <v>5</v>
+      </c>
+      <c r="M135" s="4">
+        <v>100</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="4">
+        <v>21</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S135" s="4">
+        <v>2</v>
+      </c>
+      <c r="T135" s="2"/>
+      <c r="U135" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>522</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2">
+        <v>5</v>
+      </c>
+      <c r="H136" s="2">
+        <v>523</v>
+      </c>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2">
+        <v>22</v>
+      </c>
+      <c r="K136" s="2">
+        <v>3</v>
+      </c>
+      <c r="L136" s="2">
+        <v>5</v>
+      </c>
+      <c r="M136" s="4">
+        <v>100</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="4">
+        <v>22</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S136" s="4">
+        <v>2</v>
+      </c>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>523</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2">
+        <v>5</v>
+      </c>
+      <c r="H137" s="2">
+        <v>524</v>
+      </c>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2">
+        <v>23</v>
+      </c>
+      <c r="K137" s="2">
+        <v>3</v>
+      </c>
+      <c r="L137" s="2">
+        <v>5</v>
+      </c>
+      <c r="M137" s="4">
+        <v>100</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" s="4">
+        <v>23</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S137" s="4">
+        <v>2</v>
+      </c>
+      <c r="T137" s="2"/>
+      <c r="U137" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>524</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2">
+        <v>5</v>
+      </c>
+      <c r="H138" s="2">
+        <v>525</v>
+      </c>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2">
+        <v>24</v>
+      </c>
+      <c r="K138" s="2">
+        <v>3</v>
+      </c>
+      <c r="L138" s="2">
+        <v>5</v>
+      </c>
+      <c r="M138" s="4">
+        <v>100</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="4">
+        <v>24</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S138" s="4">
+        <v>2</v>
+      </c>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>525</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2">
+        <v>5</v>
+      </c>
+      <c r="H139" s="2">
+        <v>526</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2">
+        <v>25</v>
+      </c>
+      <c r="K139" s="2">
+        <v>3</v>
+      </c>
+      <c r="L139" s="2">
+        <v>5</v>
+      </c>
+      <c r="M139" s="4">
+        <v>100</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="4">
+        <v>25</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S139" s="4">
+        <v>2</v>
+      </c>
+      <c r="T139" s="2"/>
+      <c r="U139" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>526</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2">
+        <v>5</v>
+      </c>
+      <c r="H140" s="2">
+        <v>527</v>
+      </c>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2">
+        <v>26</v>
+      </c>
+      <c r="K140" s="2">
+        <v>3</v>
+      </c>
+      <c r="L140" s="2">
+        <v>5</v>
+      </c>
+      <c r="M140" s="4">
+        <v>100</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="4">
+        <v>26</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S140" s="4">
+        <v>2</v>
+      </c>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>527</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2">
+        <v>5</v>
+      </c>
+      <c r="H141" s="2">
+        <v>528</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2">
+        <v>27</v>
+      </c>
+      <c r="K141" s="2">
+        <v>3</v>
+      </c>
+      <c r="L141" s="2">
+        <v>5</v>
+      </c>
+      <c r="M141" s="4">
+        <v>100</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="4">
+        <v>27</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S141" s="4">
+        <v>2</v>
+      </c>
+      <c r="T141" s="2"/>
+      <c r="U141" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>528</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2">
+        <v>5</v>
+      </c>
+      <c r="H142" s="2">
+        <v>529</v>
+      </c>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2">
+        <v>28</v>
+      </c>
+      <c r="K142" s="2">
+        <v>3</v>
+      </c>
+      <c r="L142" s="2">
+        <v>5</v>
+      </c>
+      <c r="M142" s="4">
+        <v>100</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="4">
+        <v>28</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S142" s="4">
+        <v>2</v>
+      </c>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>529</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2">
+        <v>5</v>
+      </c>
+      <c r="H143" s="2">
+        <v>530</v>
+      </c>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2">
+        <v>29</v>
+      </c>
+      <c r="K143" s="2">
+        <v>3</v>
+      </c>
+      <c r="L143" s="2">
+        <v>5</v>
+      </c>
+      <c r="M143" s="4">
+        <v>100</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="4">
+        <v>29</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S143" s="4">
+        <v>2</v>
+      </c>
+      <c r="T143" s="2"/>
+      <c r="U143" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>530</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2">
+        <v>5</v>
+      </c>
+      <c r="H144" s="2">
+        <v>531</v>
+      </c>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2">
+        <v>30</v>
+      </c>
+      <c r="K144" s="2">
+        <v>3</v>
+      </c>
+      <c r="L144" s="2">
+        <v>5</v>
+      </c>
+      <c r="M144" s="4">
+        <v>100</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="4">
+        <v>30</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S144" s="4">
+        <v>2</v>
+      </c>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>531</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2">
+        <v>5</v>
+      </c>
+      <c r="H145" s="2">
+        <v>532</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2">
+        <v>31</v>
+      </c>
+      <c r="K145" s="2">
+        <v>3</v>
+      </c>
+      <c r="L145" s="2">
+        <v>5</v>
+      </c>
+      <c r="M145" s="4">
+        <v>100</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" s="4">
+        <v>31</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S145" s="4">
+        <v>2</v>
+      </c>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>532</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2">
+        <v>5</v>
+      </c>
+      <c r="H146" s="2">
+        <v>533</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2">
+        <v>32</v>
+      </c>
+      <c r="K146" s="2">
+        <v>3</v>
+      </c>
+      <c r="L146" s="2">
+        <v>5</v>
+      </c>
+      <c r="M146" s="4">
+        <v>100</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" s="4">
+        <v>32</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S146" s="4">
+        <v>2</v>
+      </c>
+      <c r="T146" s="2"/>
+      <c r="U146" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>533</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2">
+        <v>5</v>
+      </c>
+      <c r="H147" s="2">
+        <v>534</v>
+      </c>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2">
+        <v>33</v>
+      </c>
+      <c r="K147" s="2">
+        <v>3</v>
+      </c>
+      <c r="L147" s="2">
+        <v>5</v>
+      </c>
+      <c r="M147" s="4">
+        <v>100</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="4">
+        <v>33</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S147" s="4">
+        <v>2</v>
+      </c>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>534</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2">
+        <v>5</v>
+      </c>
+      <c r="H148" s="2">
+        <v>535</v>
+      </c>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2">
+        <v>34</v>
+      </c>
+      <c r="K148" s="2">
+        <v>3</v>
+      </c>
+      <c r="L148" s="2">
+        <v>5</v>
+      </c>
+      <c r="M148" s="4">
+        <v>100</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="4">
+        <v>34</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S148" s="4">
+        <v>2</v>
+      </c>
+      <c r="T148" s="2"/>
+      <c r="U148" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>535</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2">
+        <v>5</v>
+      </c>
+      <c r="H149" s="2">
+        <v>536</v>
+      </c>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2">
+        <v>35</v>
+      </c>
+      <c r="K149" s="2">
+        <v>3</v>
+      </c>
+      <c r="L149" s="2">
+        <v>5</v>
+      </c>
+      <c r="M149" s="4">
+        <v>100</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="4">
+        <v>35</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S149" s="4">
+        <v>2</v>
+      </c>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>536</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2">
+        <v>5</v>
+      </c>
+      <c r="H150" s="2">
+        <v>537</v>
+      </c>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2">
+        <v>36</v>
+      </c>
+      <c r="K150" s="2">
+        <v>3</v>
+      </c>
+      <c r="L150" s="2">
+        <v>5</v>
+      </c>
+      <c r="M150" s="4">
+        <v>100</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="4">
+        <v>36</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S150" s="4">
+        <v>2</v>
+      </c>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>537</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2">
+        <v>5</v>
+      </c>
+      <c r="H151" s="2">
+        <v>538</v>
+      </c>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2">
+        <v>37</v>
+      </c>
+      <c r="K151" s="2">
+        <v>3</v>
+      </c>
+      <c r="L151" s="2">
+        <v>5</v>
+      </c>
+      <c r="M151" s="4">
+        <v>100</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" s="4">
+        <v>37</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S151" s="4">
+        <v>2</v>
+      </c>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>538</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2">
+        <v>5</v>
+      </c>
+      <c r="H152" s="2">
+        <v>539</v>
+      </c>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2">
+        <v>38</v>
+      </c>
+      <c r="K152" s="2">
+        <v>3</v>
+      </c>
+      <c r="L152" s="2">
+        <v>5</v>
+      </c>
+      <c r="M152" s="4">
+        <v>100</v>
+      </c>
+      <c r="N152" s="2"/>
+      <c r="O152" s="4">
+        <v>38</v>
+      </c>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S152" s="4">
+        <v>2</v>
+      </c>
+      <c r="T152" s="2"/>
+      <c r="U152" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>539</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2">
+        <v>5</v>
+      </c>
+      <c r="H153" s="2">
+        <v>540</v>
+      </c>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2">
+        <v>39</v>
+      </c>
+      <c r="K153" s="2">
+        <v>3</v>
+      </c>
+      <c r="L153" s="2">
+        <v>5</v>
+      </c>
+      <c r="M153" s="4">
+        <v>100</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="4">
+        <v>39</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S153" s="4">
+        <v>2</v>
+      </c>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>540</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2">
+        <v>5</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2">
+        <v>40</v>
+      </c>
+      <c r="K154" s="2">
+        <v>3</v>
+      </c>
+      <c r="L154" s="2">
+        <v>5</v>
+      </c>
+      <c r="M154" s="4">
+        <v>100</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" s="4">
+        <v>40</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S154" s="4">
+        <v>2</v>
+      </c>
+      <c r="T154" s="2"/>
+      <c r="U154" s="4">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/achievement.xlsx
+++ b/src/achievement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D310A80-317C-47F7-A82A-F197CBD33351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -254,11 +255,31 @@
     <t>水果收藏家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>param1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,43 +614,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:Q22"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,16 +682,20 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -683,8 +708,10 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,58 +743,64 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -799,10 +832,10 @@
         <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>38</v>
@@ -849,8 +882,14 @@
       <c r="AA3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -878,25 +917,25 @@
         <v>5</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
       <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="4">
-        <v>100</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4">
+        <v>100</v>
+      </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -904,8 +943,10 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -929,38 +970,40 @@
         <v>10</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>100</v>
-      </c>
-      <c r="N5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
       <c r="O5" s="4">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="4">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="4">
         <v>200</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>2002</v>
       </c>
-      <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -984,32 +1027,34 @@
         <v>15</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>100</v>
-      </c>
-      <c r="N6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
       <c r="O6" s="4">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="4">
+        <v>100</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="4">
         <v>300</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -1033,38 +1078,40 @@
         <v>20</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <v>100</v>
-      </c>
-      <c r="N7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
       <c r="O7" s="4">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="4">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="4">
         <v>400</v>
       </c>
-      <c r="S7" s="4">
+      <c r="U7" s="4">
         <v>2003</v>
       </c>
-      <c r="T7" s="4">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -1088,25 +1135,25 @@
         <v>25</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>100</v>
-      </c>
-      <c r="N8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
       <c r="O8" s="4">
+        <v>100</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="4">
         <v>5</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="4">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="4">
         <v>500</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -1114,8 +1161,10 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>106</v>
       </c>
@@ -1139,38 +1188,40 @@
         <v>30</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>100</v>
-      </c>
-      <c r="N9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
       <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="4">
         <v>6</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="4">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="4">
         <v>600</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <v>2004</v>
       </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>107</v>
       </c>
@@ -1194,25 +1245,25 @@
         <v>35</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>100</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
       <c r="O10" s="4">
+        <v>100</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4">
         <v>7</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="4">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="4">
         <v>700</v>
       </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -1220,8 +1271,10 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>108</v>
       </c>
@@ -1245,38 +1298,40 @@
         <v>40</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>100</v>
-      </c>
-      <c r="N11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
       <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="4">
         <v>8</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="4">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="4">
         <v>800</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <v>2005</v>
       </c>
-      <c r="T11" s="4">
-        <v>1</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>109</v>
       </c>
@@ -1300,25 +1355,25 @@
         <v>45</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>100</v>
-      </c>
-      <c r="N12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
       <c r="O12" s="4">
+        <v>100</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="4">
         <v>9</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="4">
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="4">
         <v>900</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -1326,8 +1381,10 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110</v>
       </c>
@@ -1351,38 +1408,40 @@
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>100</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
       <c r="O13" s="4">
+        <v>100</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="4">
         <v>10</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="4">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="4">
         <v>1000</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>2006</v>
       </c>
-      <c r="T13" s="4">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>111</v>
       </c>
@@ -1406,25 +1465,25 @@
         <v>55</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>100</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
       <c r="O14" s="4">
+        <v>100</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="4">
         <v>11</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="4">
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="4">
         <v>1100</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -1432,8 +1491,10 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>112</v>
       </c>
@@ -1457,38 +1518,40 @@
         <v>60</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>100</v>
-      </c>
-      <c r="N15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
       <c r="O15" s="4">
+        <v>100</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="4">
         <v>12</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="4">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="4">
         <v>1200</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>2007</v>
       </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -1512,25 +1575,25 @@
         <v>65</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>100</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
       <c r="O16" s="4">
+        <v>100</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="4">
         <v>13</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="4">
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="4">
         <v>1300</v>
       </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1538,8 +1601,10 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>114</v>
       </c>
@@ -1563,38 +1628,40 @@
         <v>70</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>100</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
       <c r="O17" s="4">
+        <v>100</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="4">
         <v>14</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="4">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="4">
         <v>1400</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>2008</v>
       </c>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>115</v>
       </c>
@@ -1618,25 +1685,25 @@
         <v>75</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>100</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
       <c r="O18" s="4">
+        <v>100</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="4">
         <v>15</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="4">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="4">
         <v>1500</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -1644,8 +1711,10 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>116</v>
       </c>
@@ -1669,38 +1738,40 @@
         <v>80</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>100</v>
-      </c>
-      <c r="N19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
       <c r="O19" s="4">
+        <v>100</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="4">
         <v>16</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="4">
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="4">
         <v>1600</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>2009</v>
       </c>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>117</v>
       </c>
@@ -1724,25 +1795,25 @@
         <v>85</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>100</v>
-      </c>
-      <c r="N20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
       <c r="O20" s="4">
+        <v>100</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="4">
         <v>17</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="4">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="4">
         <v>1700</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -1750,8 +1821,10 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>118</v>
       </c>
@@ -1775,38 +1848,40 @@
         <v>90</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>100</v>
-      </c>
-      <c r="N21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
       <c r="O21" s="4">
+        <v>100</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="4">
         <v>18</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="4">
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="4">
         <v>1800</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>2010</v>
       </c>
-      <c r="T21" s="4">
-        <v>1</v>
-      </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>119</v>
       </c>
@@ -1830,25 +1905,25 @@
         <v>95</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>100</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
       <c r="O22" s="4">
+        <v>100</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="4">
         <v>19</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="4">
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="4">
         <v>1900</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -1856,8 +1931,10 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>120</v>
       </c>
@@ -1879,38 +1956,40 @@
         <v>100</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <v>100</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
       <c r="O23" s="4">
+        <v>100</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="4">
         <v>20</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="4">
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="4">
         <v>2000</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>2011</v>
       </c>
-      <c r="T23" s="4">
-        <v>1</v>
-      </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>201</v>
       </c>
@@ -1935,28 +2014,28 @@
       <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-      <c r="L24" s="2">
-        <v>3</v>
-      </c>
-      <c r="M24" s="4">
-        <v>100</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
+      </c>
       <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="4">
+        <v>100</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="4">
         <v>200</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
@@ -1964,8 +2043,10 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>202</v>
       </c>
@@ -1988,41 +2069,43 @@
       <c r="J25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>3</v>
-      </c>
-      <c r="M25" s="4">
-        <v>100</v>
-      </c>
-      <c r="N25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
       <c r="O25" s="4">
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="4">
+        <v>100</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="4">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="4">
         <v>200</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <v>2002</v>
       </c>
-      <c r="T25" s="4">
-        <v>1</v>
-      </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>203</v>
       </c>
@@ -2045,35 +2128,37 @@
       <c r="J26" s="2">
         <v>3</v>
       </c>
-      <c r="K26" s="2">
-        <v>2</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3</v>
-      </c>
-      <c r="M26" s="4">
-        <v>100</v>
-      </c>
-      <c r="N26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3</v>
+      </c>
       <c r="O26" s="4">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="4">
+        <v>100</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="4">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="4">
         <v>200</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>204</v>
       </c>
@@ -2096,41 +2181,43 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-      <c r="K27" s="2">
-        <v>2</v>
-      </c>
-      <c r="L27" s="2">
-        <v>3</v>
-      </c>
-      <c r="M27" s="4">
-        <v>100</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3</v>
+      </c>
       <c r="O27" s="4">
+        <v>100</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="4">
         <v>4</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="4">
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="4">
         <v>200</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <v>2003</v>
       </c>
-      <c r="T27" s="4">
-        <v>1</v>
-      </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>205</v>
       </c>
@@ -2153,28 +2240,28 @@
       <c r="J28" s="2">
         <v>5</v>
       </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>3</v>
-      </c>
-      <c r="M28" s="4">
-        <v>100</v>
-      </c>
-      <c r="N28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
       <c r="O28" s="4">
+        <v>100</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="4">
         <v>5</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="4">
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="4">
         <v>200</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -2182,8 +2269,10 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>206</v>
       </c>
@@ -2206,41 +2295,43 @@
       <c r="J29" s="2">
         <v>6</v>
       </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>3</v>
-      </c>
-      <c r="M29" s="4">
-        <v>100</v>
-      </c>
-      <c r="N29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
       <c r="O29" s="4">
+        <v>100</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="4">
         <v>6</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="4">
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="4">
         <v>200</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>2004</v>
       </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>207</v>
       </c>
@@ -2263,28 +2354,28 @@
       <c r="J30" s="2">
         <v>7</v>
       </c>
-      <c r="K30" s="2">
-        <v>2</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4">
-        <v>100</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
       <c r="O30" s="4">
+        <v>100</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="4">
         <v>7</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="4">
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="4">
         <v>200</v>
       </c>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
@@ -2292,8 +2383,10 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>208</v>
       </c>
@@ -2316,41 +2409,43 @@
       <c r="J31" s="2">
         <v>8</v>
       </c>
-      <c r="K31" s="2">
-        <v>2</v>
-      </c>
-      <c r="L31" s="2">
-        <v>3</v>
-      </c>
-      <c r="M31" s="4">
-        <v>100</v>
-      </c>
-      <c r="N31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3</v>
+      </c>
       <c r="O31" s="4">
+        <v>100</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="4">
         <v>8</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="4">
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="4">
         <v>200</v>
       </c>
-      <c r="S31" s="4">
+      <c r="U31" s="4">
         <v>2005</v>
       </c>
-      <c r="T31" s="4">
-        <v>1</v>
-      </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>209</v>
       </c>
@@ -2373,28 +2468,28 @@
       <c r="J32" s="2">
         <v>9</v>
       </c>
-      <c r="K32" s="2">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2">
-        <v>3</v>
-      </c>
-      <c r="M32" s="4">
-        <v>100</v>
-      </c>
-      <c r="N32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
       <c r="O32" s="4">
+        <v>100</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="4">
         <v>9</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="4">
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="4">
         <v>200</v>
       </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
@@ -2402,8 +2497,10 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>210</v>
       </c>
@@ -2426,41 +2523,43 @@
       <c r="J33" s="2">
         <v>10</v>
       </c>
-      <c r="K33" s="2">
-        <v>2</v>
-      </c>
-      <c r="L33" s="2">
-        <v>3</v>
-      </c>
-      <c r="M33" s="4">
-        <v>100</v>
-      </c>
-      <c r="N33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3</v>
+      </c>
       <c r="O33" s="4">
+        <v>100</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="4">
         <v>10</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="4">
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="4">
         <v>200</v>
       </c>
-      <c r="S33" s="4">
+      <c r="U33" s="4">
         <v>2006</v>
       </c>
-      <c r="T33" s="4">
-        <v>1</v>
-      </c>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>211</v>
       </c>
@@ -2483,28 +2582,28 @@
       <c r="J34" s="2">
         <v>12</v>
       </c>
-      <c r="K34" s="2">
-        <v>2</v>
-      </c>
-      <c r="L34" s="2">
-        <v>3</v>
-      </c>
-      <c r="M34" s="4">
-        <v>100</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
       <c r="O34" s="4">
+        <v>100</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="4">
         <v>11</v>
       </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="4">
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="4">
         <v>200</v>
       </c>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
@@ -2512,8 +2611,10 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>212</v>
       </c>
@@ -2536,41 +2637,43 @@
       <c r="J35" s="2">
         <v>14</v>
       </c>
-      <c r="K35" s="2">
-        <v>2</v>
-      </c>
-      <c r="L35" s="2">
-        <v>3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>100</v>
-      </c>
-      <c r="N35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
+        <v>2</v>
+      </c>
+      <c r="N35" s="2">
+        <v>3</v>
+      </c>
       <c r="O35" s="4">
+        <v>100</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="4">
         <v>12</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="4">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="4">
         <v>200</v>
       </c>
-      <c r="S35" s="4">
+      <c r="U35" s="4">
         <v>2007</v>
       </c>
-      <c r="T35" s="4">
-        <v>1</v>
-      </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="V35" s="4">
+        <v>1</v>
+      </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>213</v>
       </c>
@@ -2593,28 +2696,28 @@
       <c r="J36" s="2">
         <v>16</v>
       </c>
-      <c r="K36" s="2">
-        <v>2</v>
-      </c>
-      <c r="L36" s="2">
-        <v>3</v>
-      </c>
-      <c r="M36" s="4">
-        <v>100</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>3</v>
+      </c>
       <c r="O36" s="4">
+        <v>100</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="4">
         <v>13</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="4">
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="4">
         <v>200</v>
       </c>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
@@ -2622,8 +2725,10 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>214</v>
       </c>
@@ -2646,41 +2751,43 @@
       <c r="J37" s="2">
         <v>18</v>
       </c>
-      <c r="K37" s="2">
-        <v>2</v>
-      </c>
-      <c r="L37" s="2">
-        <v>3</v>
-      </c>
-      <c r="M37" s="4">
-        <v>100</v>
-      </c>
-      <c r="N37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <v>2</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3</v>
+      </c>
       <c r="O37" s="4">
+        <v>100</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="4">
         <v>14</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="4">
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="4">
         <v>200</v>
       </c>
-      <c r="S37" s="4">
+      <c r="U37" s="4">
         <v>2008</v>
       </c>
-      <c r="T37" s="4">
-        <v>1</v>
-      </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="V37" s="4">
+        <v>1</v>
+      </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>215</v>
       </c>
@@ -2703,28 +2810,28 @@
       <c r="J38" s="2">
         <v>20</v>
       </c>
-      <c r="K38" s="2">
-        <v>2</v>
-      </c>
-      <c r="L38" s="2">
-        <v>3</v>
-      </c>
-      <c r="M38" s="4">
-        <v>100</v>
-      </c>
-      <c r="N38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>2</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3</v>
+      </c>
       <c r="O38" s="4">
+        <v>100</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="4">
         <v>15</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="4">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="4">
         <v>200</v>
       </c>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -2732,8 +2839,10 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>216</v>
       </c>
@@ -2756,41 +2865,43 @@
       <c r="J39" s="2">
         <v>22</v>
       </c>
-      <c r="K39" s="2">
-        <v>2</v>
-      </c>
-      <c r="L39" s="2">
-        <v>3</v>
-      </c>
-      <c r="M39" s="4">
-        <v>100</v>
-      </c>
-      <c r="N39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
+        <v>2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>3</v>
+      </c>
       <c r="O39" s="4">
+        <v>100</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="4">
         <v>16</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="4">
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="4">
         <v>200</v>
       </c>
-      <c r="S39" s="4">
+      <c r="U39" s="4">
         <v>2009</v>
       </c>
-      <c r="T39" s="4">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>217</v>
       </c>
@@ -2813,28 +2924,28 @@
       <c r="J40" s="2">
         <v>24</v>
       </c>
-      <c r="K40" s="2">
-        <v>2</v>
-      </c>
-      <c r="L40" s="2">
-        <v>3</v>
-      </c>
-      <c r="M40" s="4">
-        <v>100</v>
-      </c>
-      <c r="N40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>3</v>
+      </c>
       <c r="O40" s="4">
+        <v>100</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="4">
         <v>17</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="4">
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="4">
         <v>200</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -2842,8 +2953,10 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>218</v>
       </c>
@@ -2866,41 +2979,43 @@
       <c r="J41" s="2">
         <v>26</v>
       </c>
-      <c r="K41" s="2">
-        <v>2</v>
-      </c>
-      <c r="L41" s="2">
-        <v>3</v>
-      </c>
-      <c r="M41" s="4">
-        <v>100</v>
-      </c>
-      <c r="N41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2">
+        <v>3</v>
+      </c>
       <c r="O41" s="4">
+        <v>100</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="4">
         <v>18</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="4">
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="4">
         <v>200</v>
       </c>
-      <c r="S41" s="4">
+      <c r="U41" s="4">
         <v>2010</v>
       </c>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+    </row>
+    <row r="42" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>219</v>
       </c>
@@ -2923,28 +3038,28 @@
       <c r="J42" s="2">
         <v>28</v>
       </c>
-      <c r="K42" s="2">
-        <v>2</v>
-      </c>
-      <c r="L42" s="2">
-        <v>3</v>
-      </c>
-      <c r="M42" s="4">
-        <v>100</v>
-      </c>
-      <c r="N42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>2</v>
+      </c>
+      <c r="N42" s="2">
+        <v>3</v>
+      </c>
       <c r="O42" s="4">
+        <v>100</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="4">
         <v>19</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="4">
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="4">
         <v>200</v>
       </c>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -2952,8 +3067,10 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+    </row>
+    <row r="43" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>220</v>
       </c>
@@ -2976,41 +3093,43 @@
       <c r="J43" s="2">
         <v>30</v>
       </c>
-      <c r="K43" s="2">
-        <v>2</v>
-      </c>
-      <c r="L43" s="2">
-        <v>3</v>
-      </c>
-      <c r="M43" s="4">
-        <v>100</v>
-      </c>
-      <c r="N43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>2</v>
+      </c>
+      <c r="N43" s="2">
+        <v>3</v>
+      </c>
       <c r="O43" s="4">
+        <v>100</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="4">
         <v>20</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="4">
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="4">
         <v>200</v>
       </c>
-      <c r="S43" s="4">
+      <c r="U43" s="4">
         <v>2011</v>
       </c>
-      <c r="T43" s="4">
-        <v>1</v>
-      </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+    </row>
+    <row r="44" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>221</v>
       </c>
@@ -3033,41 +3152,43 @@
       <c r="J44" s="2">
         <v>32</v>
       </c>
-      <c r="K44" s="2">
-        <v>2</v>
-      </c>
-      <c r="L44" s="2">
-        <v>3</v>
-      </c>
-      <c r="M44" s="4">
-        <v>100</v>
-      </c>
-      <c r="N44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3</v>
+      </c>
       <c r="O44" s="4">
+        <v>100</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="4">
         <v>10</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="4">
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="4">
         <v>200</v>
       </c>
-      <c r="S44" s="4">
+      <c r="U44" s="4">
         <v>2006</v>
       </c>
-      <c r="T44" s="4">
-        <v>1</v>
-      </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+    </row>
+    <row r="45" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>222</v>
       </c>
@@ -3090,28 +3211,28 @@
       <c r="J45" s="2">
         <v>34</v>
       </c>
-      <c r="K45" s="2">
-        <v>2</v>
-      </c>
-      <c r="L45" s="2">
-        <v>3</v>
-      </c>
-      <c r="M45" s="4">
-        <v>100</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2">
+        <v>3</v>
+      </c>
       <c r="O45" s="4">
+        <v>100</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="4">
         <v>11</v>
       </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="4">
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="4">
         <v>200</v>
       </c>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -3119,8 +3240,10 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+    </row>
+    <row r="46" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>223</v>
       </c>
@@ -3143,41 +3266,43 @@
       <c r="J46" s="2">
         <v>36</v>
       </c>
-      <c r="K46" s="2">
-        <v>2</v>
-      </c>
-      <c r="L46" s="2">
-        <v>3</v>
-      </c>
-      <c r="M46" s="4">
-        <v>100</v>
-      </c>
-      <c r="N46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2">
+        <v>3</v>
+      </c>
       <c r="O46" s="4">
+        <v>100</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="4">
         <v>12</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="4">
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="4">
         <v>200</v>
       </c>
-      <c r="S46" s="4">
+      <c r="U46" s="4">
         <v>2007</v>
       </c>
-      <c r="T46" s="4">
-        <v>1</v>
-      </c>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
+      <c r="V46" s="4">
+        <v>1</v>
+      </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+    </row>
+    <row r="47" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>224</v>
       </c>
@@ -3200,28 +3325,28 @@
       <c r="J47" s="2">
         <v>38</v>
       </c>
-      <c r="K47" s="2">
-        <v>2</v>
-      </c>
-      <c r="L47" s="2">
-        <v>3</v>
-      </c>
-      <c r="M47" s="4">
-        <v>100</v>
-      </c>
-      <c r="N47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2">
+        <v>2</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
       <c r="O47" s="4">
+        <v>100</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="4">
         <v>13</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="4">
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="4">
         <v>200</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
@@ -3229,8 +3354,10 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+    </row>
+    <row r="48" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>225</v>
       </c>
@@ -3253,41 +3380,43 @@
       <c r="J48" s="2">
         <v>40</v>
       </c>
-      <c r="K48" s="2">
-        <v>2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>3</v>
-      </c>
-      <c r="M48" s="4">
-        <v>100</v>
-      </c>
-      <c r="N48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3</v>
+      </c>
       <c r="O48" s="4">
+        <v>100</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="4">
         <v>14</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="4">
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="4">
         <v>200</v>
       </c>
-      <c r="S48" s="4">
+      <c r="U48" s="4">
         <v>2008</v>
       </c>
-      <c r="T48" s="4">
-        <v>1</v>
-      </c>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
+      <c r="V48" s="4">
+        <v>1</v>
+      </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+    </row>
+    <row r="49" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>226</v>
       </c>
@@ -3310,28 +3439,28 @@
       <c r="J49" s="2">
         <v>42</v>
       </c>
-      <c r="K49" s="2">
-        <v>2</v>
-      </c>
-      <c r="L49" s="2">
-        <v>3</v>
-      </c>
-      <c r="M49" s="4">
-        <v>100</v>
-      </c>
-      <c r="N49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2">
+        <v>3</v>
+      </c>
       <c r="O49" s="4">
+        <v>100</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="4">
         <v>15</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="4">
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="4">
         <v>200</v>
       </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
@@ -3339,8 +3468,10 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+    </row>
+    <row r="50" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>227</v>
       </c>
@@ -3363,41 +3494,43 @@
       <c r="J50" s="2">
         <v>44</v>
       </c>
-      <c r="K50" s="2">
-        <v>2</v>
-      </c>
-      <c r="L50" s="2">
-        <v>3</v>
-      </c>
-      <c r="M50" s="4">
-        <v>100</v>
-      </c>
-      <c r="N50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
+        <v>2</v>
+      </c>
+      <c r="N50" s="2">
+        <v>3</v>
+      </c>
       <c r="O50" s="4">
+        <v>100</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="4">
         <v>16</v>
       </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="4">
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="4">
         <v>200</v>
       </c>
-      <c r="S50" s="4">
+      <c r="U50" s="4">
         <v>2009</v>
       </c>
-      <c r="T50" s="4">
-        <v>1</v>
-      </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
+      <c r="V50" s="4">
+        <v>1</v>
+      </c>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+    </row>
+    <row r="51" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>228</v>
       </c>
@@ -3420,28 +3553,28 @@
       <c r="J51" s="2">
         <v>46</v>
       </c>
-      <c r="K51" s="2">
-        <v>2</v>
-      </c>
-      <c r="L51" s="2">
-        <v>3</v>
-      </c>
-      <c r="M51" s="4">
-        <v>100</v>
-      </c>
-      <c r="N51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2">
+        <v>2</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3</v>
+      </c>
       <c r="O51" s="4">
+        <v>100</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="4">
         <v>17</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="4">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="4">
         <v>200</v>
       </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
@@ -3449,8 +3582,10 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-    </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>229</v>
       </c>
@@ -3473,41 +3608,43 @@
       <c r="J52" s="2">
         <v>48</v>
       </c>
-      <c r="K52" s="2">
-        <v>2</v>
-      </c>
-      <c r="L52" s="2">
-        <v>3</v>
-      </c>
-      <c r="M52" s="4">
-        <v>100</v>
-      </c>
-      <c r="N52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2">
+        <v>3</v>
+      </c>
       <c r="O52" s="4">
+        <v>100</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="4">
         <v>18</v>
       </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="4">
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="4">
         <v>200</v>
       </c>
-      <c r="S52" s="4">
+      <c r="U52" s="4">
         <v>2010</v>
       </c>
-      <c r="T52" s="4">
-        <v>1</v>
-      </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
+      <c r="V52" s="4">
+        <v>1</v>
+      </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
-    </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+    </row>
+    <row r="53" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>230</v>
       </c>
@@ -3530,28 +3667,28 @@
       <c r="J53" s="2">
         <v>50</v>
       </c>
-      <c r="K53" s="2">
-        <v>2</v>
-      </c>
-      <c r="L53" s="2">
-        <v>3</v>
-      </c>
-      <c r="M53" s="4">
-        <v>100</v>
-      </c>
-      <c r="N53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2">
+        <v>3</v>
+      </c>
       <c r="O53" s="4">
+        <v>100</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="4">
         <v>19</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="4">
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53" s="4">
         <v>200</v>
       </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -3559,8 +3696,10 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>231</v>
       </c>
@@ -3581,41 +3720,43 @@
       <c r="J54" s="2">
         <v>52</v>
       </c>
-      <c r="K54" s="2">
-        <v>2</v>
-      </c>
-      <c r="L54" s="2">
-        <v>2</v>
-      </c>
-      <c r="M54" s="4">
-        <v>100</v>
-      </c>
-      <c r="N54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2</v>
+      </c>
       <c r="O54" s="4">
+        <v>100</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="4">
         <v>20</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="4">
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="4">
         <v>200</v>
       </c>
-      <c r="S54" s="4">
+      <c r="U54" s="4">
         <v>2011</v>
       </c>
-      <c r="T54" s="4">
-        <v>1</v>
-      </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
+      <c r="V54" s="4">
+        <v>1</v>
+      </c>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>301</v>
       </c>
@@ -3641,25 +3782,25 @@
         <v>2</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2">
-        <v>2</v>
-      </c>
-      <c r="M55" s="4">
-        <v>100</v>
-      </c>
-      <c r="N55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
       <c r="O55" s="4">
+        <v>100</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="4">
         <v>4</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="4">
-        <v>100</v>
-      </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="4">
+        <v>100</v>
+      </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -3667,8 +3808,10 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>302</v>
       </c>
@@ -3692,25 +3835,25 @@
         <v>4</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2">
-        <v>2</v>
-      </c>
-      <c r="M56" s="4">
-        <v>100</v>
-      </c>
-      <c r="N56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
+        <v>2</v>
+      </c>
       <c r="O56" s="4">
+        <v>100</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="4">
         <v>5</v>
       </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="4">
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="4">
         <v>200</v>
       </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
@@ -3718,8 +3861,10 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>303</v>
       </c>
@@ -3743,25 +3888,25 @@
         <v>6</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2">
-        <v>2</v>
-      </c>
-      <c r="M57" s="4">
-        <v>100</v>
-      </c>
-      <c r="N57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2">
+        <v>2</v>
+      </c>
       <c r="O57" s="4">
+        <v>100</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="4">
         <v>6</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="4">
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="4">
         <v>300</v>
       </c>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
@@ -3769,8 +3914,10 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-    </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+    </row>
+    <row r="58" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>304</v>
       </c>
@@ -3794,25 +3941,25 @@
         <v>8</v>
       </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2">
-        <v>2</v>
-      </c>
-      <c r="M58" s="4">
-        <v>100</v>
-      </c>
-      <c r="N58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2">
+        <v>2</v>
+      </c>
       <c r="O58" s="4">
+        <v>100</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="4">
         <v>7</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="4">
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58" s="4">
         <v>400</v>
       </c>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
@@ -3820,8 +3967,10 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
-    </row>
-    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>305</v>
       </c>
@@ -3845,25 +3994,25 @@
         <v>10</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2">
-        <v>2</v>
-      </c>
-      <c r="M59" s="4">
-        <v>100</v>
-      </c>
-      <c r="N59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2">
+        <v>2</v>
+      </c>
       <c r="O59" s="4">
+        <v>100</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="4">
         <v>8</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="4">
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="4">
         <v>500</v>
       </c>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
@@ -3871,8 +4020,10 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+    </row>
+    <row r="60" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>306</v>
       </c>
@@ -3896,25 +4047,25 @@
         <v>12</v>
       </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2">
-        <v>2</v>
-      </c>
-      <c r="M60" s="4">
-        <v>100</v>
-      </c>
-      <c r="N60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2">
+        <v>2</v>
+      </c>
       <c r="O60" s="4">
+        <v>100</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="4">
         <v>9</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="4">
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="4">
         <v>600</v>
       </c>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
@@ -3922,8 +4073,10 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
-    </row>
-    <row r="61" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+    </row>
+    <row r="61" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>307</v>
       </c>
@@ -3947,25 +4100,25 @@
         <v>14</v>
       </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2">
-        <v>2</v>
-      </c>
-      <c r="M61" s="4">
-        <v>100</v>
-      </c>
-      <c r="N61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2">
+        <v>2</v>
+      </c>
       <c r="O61" s="4">
+        <v>100</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="4">
         <v>10</v>
       </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="4">
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61" s="4">
         <v>700</v>
       </c>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
@@ -3973,8 +4126,10 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
-    </row>
-    <row r="62" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+    </row>
+    <row r="62" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>308</v>
       </c>
@@ -3998,25 +4153,25 @@
         <v>16</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2">
-        <v>2</v>
-      </c>
-      <c r="M62" s="4">
-        <v>100</v>
-      </c>
-      <c r="N62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2">
+        <v>2</v>
+      </c>
       <c r="O62" s="4">
+        <v>100</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="4">
         <v>11</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="4">
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62" s="4">
         <v>800</v>
       </c>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -4024,8 +4179,10 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-    </row>
-    <row r="63" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+    </row>
+    <row r="63" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>309</v>
       </c>
@@ -4049,25 +4206,25 @@
         <v>18</v>
       </c>
       <c r="K63" s="2"/>
-      <c r="L63" s="2">
-        <v>2</v>
-      </c>
-      <c r="M63" s="4">
-        <v>100</v>
-      </c>
-      <c r="N63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2">
+        <v>2</v>
+      </c>
       <c r="O63" s="4">
+        <v>100</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="4">
         <v>12</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="4">
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="4">
         <v>900</v>
       </c>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
@@ -4075,8 +4232,10 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
-    </row>
-    <row r="64" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+    </row>
+    <row r="64" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>310</v>
       </c>
@@ -4100,25 +4259,25 @@
         <v>20</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2">
-        <v>2</v>
-      </c>
-      <c r="M64" s="4">
-        <v>100</v>
-      </c>
-      <c r="N64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2">
+        <v>2</v>
+      </c>
       <c r="O64" s="4">
+        <v>100</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="4">
         <v>13</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="4">
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="4">
         <v>1000</v>
       </c>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
@@ -4126,8 +4285,10 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
-    </row>
-    <row r="65" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+    </row>
+    <row r="65" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>311</v>
       </c>
@@ -4151,25 +4312,25 @@
         <v>22</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2">
-        <v>2</v>
-      </c>
-      <c r="M65" s="4">
-        <v>100</v>
-      </c>
-      <c r="N65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2">
+        <v>2</v>
+      </c>
       <c r="O65" s="4">
+        <v>100</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="4">
         <v>14</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="4">
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="4">
         <v>1100</v>
       </c>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
@@ -4177,8 +4338,10 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
-    </row>
-    <row r="66" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+    </row>
+    <row r="66" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>312</v>
       </c>
@@ -4202,25 +4365,25 @@
         <v>24</v>
       </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2">
-        <v>2</v>
-      </c>
-      <c r="M66" s="4">
-        <v>100</v>
-      </c>
-      <c r="N66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2">
+        <v>2</v>
+      </c>
       <c r="O66" s="4">
+        <v>100</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="4">
         <v>15</v>
       </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="4">
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66" s="4">
         <v>1200</v>
       </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
@@ -4228,8 +4391,10 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>313</v>
       </c>
@@ -4253,25 +4418,25 @@
         <v>26</v>
       </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2">
-        <v>2</v>
-      </c>
-      <c r="M67" s="4">
-        <v>100</v>
-      </c>
-      <c r="N67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2">
+        <v>2</v>
+      </c>
       <c r="O67" s="4">
+        <v>100</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="4">
         <v>16</v>
       </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="4">
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="2"/>
+      <c r="T67" s="4">
         <v>1300</v>
       </c>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
@@ -4279,8 +4444,10 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+    </row>
+    <row r="68" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>314</v>
       </c>
@@ -4304,25 +4471,25 @@
         <v>28</v>
       </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2">
-        <v>2</v>
-      </c>
-      <c r="M68" s="4">
-        <v>100</v>
-      </c>
-      <c r="N68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2">
+        <v>2</v>
+      </c>
       <c r="O68" s="4">
+        <v>100</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="4">
         <v>17</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="4">
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="4">
         <v>1400</v>
       </c>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
@@ -4330,8 +4497,10 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+    </row>
+    <row r="69" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>315</v>
       </c>
@@ -4355,25 +4524,25 @@
         <v>30</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2">
-        <v>2</v>
-      </c>
-      <c r="M69" s="4">
-        <v>100</v>
-      </c>
-      <c r="N69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2">
+        <v>2</v>
+      </c>
       <c r="O69" s="4">
+        <v>100</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="4">
         <v>18</v>
       </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="4">
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69" s="2"/>
+      <c r="T69" s="4">
         <v>1500</v>
       </c>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
@@ -4381,8 +4550,10 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+    </row>
+    <row r="70" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>316</v>
       </c>
@@ -4406,25 +4577,25 @@
         <v>32</v>
       </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="2">
-        <v>2</v>
-      </c>
-      <c r="M70" s="4">
-        <v>100</v>
-      </c>
-      <c r="N70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2">
+        <v>2</v>
+      </c>
       <c r="O70" s="4">
+        <v>100</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="4">
         <v>19</v>
       </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="4">
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="4">
         <v>1600</v>
       </c>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -4432,8 +4603,10 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+    </row>
+    <row r="71" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>317</v>
       </c>
@@ -4457,25 +4630,25 @@
         <v>34</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2">
-        <v>2</v>
-      </c>
-      <c r="M71" s="4">
-        <v>100</v>
-      </c>
-      <c r="N71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2">
+        <v>2</v>
+      </c>
       <c r="O71" s="4">
+        <v>100</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="4">
         <v>20</v>
       </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="4">
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="4">
         <v>1700</v>
       </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
@@ -4483,8 +4656,10 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+    </row>
+    <row r="72" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>318</v>
       </c>
@@ -4508,25 +4683,25 @@
         <v>36</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="2">
-        <v>2</v>
-      </c>
-      <c r="M72" s="4">
-        <v>100</v>
-      </c>
-      <c r="N72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2">
+        <v>2</v>
+      </c>
       <c r="O72" s="4">
+        <v>100</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="4">
         <v>21</v>
       </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="4">
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="4">
         <v>1800</v>
       </c>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
@@ -4534,8 +4709,10 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+    </row>
+    <row r="73" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>319</v>
       </c>
@@ -4559,25 +4736,25 @@
         <v>38</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="2">
-        <v>2</v>
-      </c>
-      <c r="M73" s="4">
-        <v>100</v>
-      </c>
-      <c r="N73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2">
+        <v>2</v>
+      </c>
       <c r="O73" s="4">
+        <v>100</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="4">
         <v>22</v>
       </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="4">
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73" s="4">
         <v>1900</v>
       </c>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
@@ -4585,8 +4762,10 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+    </row>
+    <row r="74" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>320</v>
       </c>
@@ -4610,25 +4789,25 @@
         <v>40</v>
       </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="2">
-        <v>2</v>
-      </c>
-      <c r="M74" s="4">
-        <v>100</v>
-      </c>
-      <c r="N74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2">
+        <v>2</v>
+      </c>
       <c r="O74" s="4">
+        <v>100</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="4">
         <v>23</v>
       </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="4">
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="4">
         <v>2000</v>
       </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
@@ -4636,8 +4815,10 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+    </row>
+    <row r="75" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>321</v>
       </c>
@@ -4661,25 +4842,25 @@
         <v>42</v>
       </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2">
-        <v>2</v>
-      </c>
-      <c r="M75" s="4">
-        <v>100</v>
-      </c>
-      <c r="N75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2">
+        <v>2</v>
+      </c>
       <c r="O75" s="4">
+        <v>100</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="4">
         <v>24</v>
       </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="4">
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75" s="4">
         <v>2100</v>
       </c>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
@@ -4687,8 +4868,10 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+    </row>
+    <row r="76" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>322</v>
       </c>
@@ -4712,25 +4895,25 @@
         <v>44</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2">
-        <v>2</v>
-      </c>
-      <c r="M76" s="4">
-        <v>100</v>
-      </c>
-      <c r="N76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2">
+        <v>2</v>
+      </c>
       <c r="O76" s="4">
+        <v>100</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="4">
         <v>25</v>
       </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="4">
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" s="2"/>
+      <c r="T76" s="4">
         <v>2200</v>
       </c>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -4738,8 +4921,10 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+    </row>
+    <row r="77" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>323</v>
       </c>
@@ -4763,25 +4948,25 @@
         <v>46</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2">
-        <v>2</v>
-      </c>
-      <c r="M77" s="4">
-        <v>100</v>
-      </c>
-      <c r="N77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2">
+        <v>2</v>
+      </c>
       <c r="O77" s="4">
+        <v>100</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="4">
         <v>26</v>
       </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="4">
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="4">
         <v>2300</v>
       </c>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
@@ -4789,8 +4974,10 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
-    </row>
-    <row r="78" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+    </row>
+    <row r="78" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>324</v>
       </c>
@@ -4814,25 +5001,25 @@
         <v>48</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="2">
-        <v>2</v>
-      </c>
-      <c r="M78" s="4">
-        <v>100</v>
-      </c>
-      <c r="N78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2">
+        <v>2</v>
+      </c>
       <c r="O78" s="4">
+        <v>100</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="4">
         <v>27</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="4">
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="4">
         <v>2400</v>
       </c>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
@@ -4840,8 +5027,10 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+    </row>
+    <row r="79" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>325</v>
       </c>
@@ -4865,25 +5054,25 @@
         <v>50</v>
       </c>
       <c r="K79" s="2"/>
-      <c r="L79" s="2">
-        <v>2</v>
-      </c>
-      <c r="M79" s="4">
-        <v>100</v>
-      </c>
-      <c r="N79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2">
+        <v>2</v>
+      </c>
       <c r="O79" s="4">
+        <v>100</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="4">
         <v>28</v>
       </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="4">
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="4">
         <v>2500</v>
       </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
@@ -4891,8 +5080,10 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+    </row>
+    <row r="80" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>326</v>
       </c>
@@ -4916,25 +5107,25 @@
         <v>52</v>
       </c>
       <c r="K80" s="2"/>
-      <c r="L80" s="2">
-        <v>2</v>
-      </c>
-      <c r="M80" s="4">
-        <v>100</v>
-      </c>
-      <c r="N80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2">
+        <v>2</v>
+      </c>
       <c r="O80" s="4">
+        <v>100</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="4">
         <v>29</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="4">
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80" s="4">
         <v>2600</v>
       </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
@@ -4942,8 +5133,10 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+    </row>
+    <row r="81" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>327</v>
       </c>
@@ -4967,25 +5160,25 @@
         <v>54</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="2">
-        <v>2</v>
-      </c>
-      <c r="M81" s="4">
-        <v>100</v>
-      </c>
-      <c r="N81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2">
+        <v>2</v>
+      </c>
       <c r="O81" s="4">
+        <v>100</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="4">
         <v>30</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="4">
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2"/>
+      <c r="T81" s="4">
         <v>2700</v>
       </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
@@ -4993,8 +5186,10 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+    </row>
+    <row r="82" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>328</v>
       </c>
@@ -5018,25 +5213,25 @@
         <v>56</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="2">
-        <v>2</v>
-      </c>
-      <c r="M82" s="4">
-        <v>100</v>
-      </c>
-      <c r="N82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2">
+        <v>2</v>
+      </c>
       <c r="O82" s="4">
+        <v>100</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="4">
         <v>31</v>
       </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="4">
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82" s="4">
         <v>2800</v>
       </c>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
@@ -5044,8 +5239,10 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+    </row>
+    <row r="83" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>329</v>
       </c>
@@ -5069,25 +5266,25 @@
         <v>58</v>
       </c>
       <c r="K83" s="2"/>
-      <c r="L83" s="2">
-        <v>2</v>
-      </c>
-      <c r="M83" s="4">
-        <v>100</v>
-      </c>
-      <c r="N83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2">
+        <v>2</v>
+      </c>
       <c r="O83" s="4">
+        <v>100</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="4">
         <v>32</v>
       </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="4">
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2"/>
+      <c r="T83" s="4">
         <v>2900</v>
       </c>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
@@ -5095,8 +5292,10 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+    </row>
+    <row r="84" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>330</v>
       </c>
@@ -5120,25 +5319,25 @@
         <v>60</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="2">
-        <v>2</v>
-      </c>
-      <c r="M84" s="4">
-        <v>100</v>
-      </c>
-      <c r="N84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2">
+        <v>2</v>
+      </c>
       <c r="O84" s="4">
+        <v>100</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="4">
         <v>33</v>
       </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="4">
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84" s="2"/>
+      <c r="T84" s="4">
         <v>3000</v>
       </c>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
@@ -5146,8 +5345,10 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+    </row>
+    <row r="85" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>331</v>
       </c>
@@ -5171,25 +5372,25 @@
         <v>62</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="2">
-        <v>2</v>
-      </c>
-      <c r="M85" s="4">
-        <v>100</v>
-      </c>
-      <c r="N85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2">
+        <v>2</v>
+      </c>
       <c r="O85" s="4">
+        <v>100</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="4">
         <v>34</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="4">
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2"/>
+      <c r="T85" s="4">
         <v>3100</v>
       </c>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
@@ -5197,8 +5398,10 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+    </row>
+    <row r="86" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>332</v>
       </c>
@@ -5222,25 +5425,25 @@
         <v>64</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="2">
-        <v>2</v>
-      </c>
-      <c r="M86" s="4">
-        <v>100</v>
-      </c>
-      <c r="N86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2">
+        <v>2</v>
+      </c>
       <c r="O86" s="4">
+        <v>100</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="4">
         <v>35</v>
       </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="4">
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86" s="4">
         <v>3200</v>
       </c>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
@@ -5248,8 +5451,10 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+    </row>
+    <row r="87" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>333</v>
       </c>
@@ -5273,25 +5478,25 @@
         <v>66</v>
       </c>
       <c r="K87" s="2"/>
-      <c r="L87" s="2">
-        <v>2</v>
-      </c>
-      <c r="M87" s="4">
-        <v>100</v>
-      </c>
-      <c r="N87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2">
+        <v>2</v>
+      </c>
       <c r="O87" s="4">
+        <v>100</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="4">
         <v>36</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="4">
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="4">
         <v>3300</v>
       </c>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
@@ -5299,8 +5504,10 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+    </row>
+    <row r="88" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>334</v>
       </c>
@@ -5324,25 +5531,25 @@
         <v>68</v>
       </c>
       <c r="K88" s="2"/>
-      <c r="L88" s="2">
-        <v>2</v>
-      </c>
-      <c r="M88" s="4">
-        <v>100</v>
-      </c>
-      <c r="N88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2">
+        <v>2</v>
+      </c>
       <c r="O88" s="4">
+        <v>100</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="4">
         <v>37</v>
       </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="4">
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88" s="4">
         <v>3400</v>
       </c>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -5350,8 +5557,10 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+    </row>
+    <row r="89" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>335</v>
       </c>
@@ -5375,25 +5584,25 @@
         <v>70</v>
       </c>
       <c r="K89" s="2"/>
-      <c r="L89" s="2">
-        <v>2</v>
-      </c>
-      <c r="M89" s="4">
-        <v>100</v>
-      </c>
-      <c r="N89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2">
+        <v>2</v>
+      </c>
       <c r="O89" s="4">
+        <v>100</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="4">
         <v>38</v>
       </c>
-      <c r="P89">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="4">
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2"/>
+      <c r="T89" s="4">
         <v>3500</v>
       </c>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
@@ -5401,8 +5610,10 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+    </row>
+    <row r="90" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>336</v>
       </c>
@@ -5426,25 +5637,25 @@
         <v>72</v>
       </c>
       <c r="K90" s="2"/>
-      <c r="L90" s="2">
-        <v>2</v>
-      </c>
-      <c r="M90" s="4">
-        <v>100</v>
-      </c>
-      <c r="N90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2">
+        <v>2</v>
+      </c>
       <c r="O90" s="4">
+        <v>100</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="4">
         <v>39</v>
       </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="4">
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90" s="4">
         <v>3600</v>
       </c>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
@@ -5452,8 +5663,10 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
-    </row>
-    <row r="91" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+    </row>
+    <row r="91" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>337</v>
       </c>
@@ -5477,25 +5690,25 @@
         <v>74</v>
       </c>
       <c r="K91" s="2"/>
-      <c r="L91" s="2">
-        <v>2</v>
-      </c>
-      <c r="M91" s="4">
-        <v>100</v>
-      </c>
-      <c r="N91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2">
+        <v>2</v>
+      </c>
       <c r="O91" s="4">
+        <v>100</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="4">
         <v>40</v>
       </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="4">
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" s="2"/>
+      <c r="T91" s="4">
         <v>3700</v>
       </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
@@ -5503,8 +5716,10 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
-    </row>
-    <row r="92" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+    </row>
+    <row r="92" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>338</v>
       </c>
@@ -5528,25 +5743,25 @@
         <v>76</v>
       </c>
       <c r="K92" s="2"/>
-      <c r="L92" s="2">
-        <v>2</v>
-      </c>
-      <c r="M92" s="4">
-        <v>100</v>
-      </c>
-      <c r="N92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2">
+        <v>2</v>
+      </c>
       <c r="O92" s="4">
+        <v>100</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="4">
         <v>41</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="4">
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="4">
         <v>3800</v>
       </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -5554,8 +5769,10 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
-    </row>
-    <row r="93" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+    </row>
+    <row r="93" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>339</v>
       </c>
@@ -5579,25 +5796,25 @@
         <v>78</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="2">
-        <v>2</v>
-      </c>
-      <c r="M93" s="4">
-        <v>100</v>
-      </c>
-      <c r="N93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2">
+        <v>2</v>
+      </c>
       <c r="O93" s="4">
+        <v>100</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="4">
         <v>42</v>
       </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="4">
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="4">
         <v>3900</v>
       </c>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
@@ -5605,8 +5822,10 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
-    </row>
-    <row r="94" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+    </row>
+    <row r="94" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>340</v>
       </c>
@@ -5630,25 +5849,25 @@
         <v>80</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2">
-        <v>2</v>
-      </c>
-      <c r="M94" s="4">
-        <v>100</v>
-      </c>
-      <c r="N94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2">
+        <v>2</v>
+      </c>
       <c r="O94" s="4">
+        <v>100</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="4">
         <v>43</v>
       </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="4">
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="4">
         <v>4000</v>
       </c>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
@@ -5656,8 +5875,10 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
-    </row>
-    <row r="95" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+    </row>
+    <row r="95" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>341</v>
       </c>
@@ -5681,25 +5902,25 @@
         <v>82</v>
       </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2">
-        <v>2</v>
-      </c>
-      <c r="M95" s="4">
-        <v>100</v>
-      </c>
-      <c r="N95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2">
+        <v>2</v>
+      </c>
       <c r="O95" s="4">
+        <v>100</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="4">
         <v>44</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="4">
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95" s="2"/>
+      <c r="T95" s="4">
         <v>4100</v>
       </c>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
@@ -5707,8 +5928,10 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
-    </row>
-    <row r="96" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+    </row>
+    <row r="96" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>342</v>
       </c>
@@ -5732,25 +5955,25 @@
         <v>84</v>
       </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="2">
-        <v>2</v>
-      </c>
-      <c r="M96" s="4">
-        <v>100</v>
-      </c>
-      <c r="N96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2">
+        <v>2</v>
+      </c>
       <c r="O96" s="4">
+        <v>100</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="4">
         <v>45</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="4">
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96" s="4">
         <v>4200</v>
       </c>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
@@ -5758,8 +5981,10 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
-    </row>
-    <row r="97" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+    </row>
+    <row r="97" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>343</v>
       </c>
@@ -5783,25 +6008,25 @@
         <v>86</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="2">
-        <v>2</v>
-      </c>
-      <c r="M97" s="4">
-        <v>100</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2">
+        <v>2</v>
+      </c>
       <c r="O97" s="4">
+        <v>100</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="4">
         <v>46</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="4">
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97" s="2"/>
+      <c r="T97" s="4">
         <v>4300</v>
       </c>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
@@ -5809,8 +6034,10 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
-    </row>
-    <row r="98" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+    </row>
+    <row r="98" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>344</v>
       </c>
@@ -5834,25 +6061,25 @@
         <v>88</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="2">
-        <v>2</v>
-      </c>
-      <c r="M98" s="4">
-        <v>100</v>
-      </c>
-      <c r="N98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2">
+        <v>2</v>
+      </c>
       <c r="O98" s="4">
+        <v>100</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="4">
         <v>47</v>
       </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="4">
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="4">
         <v>4400</v>
       </c>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
@@ -5860,8 +6087,10 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
-    </row>
-    <row r="99" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+    </row>
+    <row r="99" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>345</v>
       </c>
@@ -5885,25 +6114,25 @@
         <v>90</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="2">
-        <v>2</v>
-      </c>
-      <c r="M99" s="4">
-        <v>100</v>
-      </c>
-      <c r="N99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2">
+        <v>2</v>
+      </c>
       <c r="O99" s="4">
+        <v>100</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="4">
         <v>48</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="4">
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99" s="2"/>
+      <c r="T99" s="4">
         <v>4500</v>
       </c>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
@@ -5911,8 +6140,10 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
-    </row>
-    <row r="100" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+    </row>
+    <row r="100" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>346</v>
       </c>
@@ -5936,25 +6167,25 @@
         <v>92</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="2">
-        <v>2</v>
-      </c>
-      <c r="M100" s="4">
-        <v>100</v>
-      </c>
-      <c r="N100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2">
+        <v>2</v>
+      </c>
       <c r="O100" s="4">
+        <v>100</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="4">
         <v>49</v>
       </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="4">
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100" s="2"/>
+      <c r="T100" s="4">
         <v>4600</v>
       </c>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
@@ -5962,8 +6193,10 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
-    </row>
-    <row r="101" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+    </row>
+    <row r="101" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>347</v>
       </c>
@@ -5987,25 +6220,25 @@
         <v>94</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2">
-        <v>2</v>
-      </c>
-      <c r="M101" s="4">
-        <v>100</v>
-      </c>
-      <c r="N101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2">
+        <v>2</v>
+      </c>
       <c r="O101" s="4">
+        <v>100</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="4">
         <v>50</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="4">
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101" s="2"/>
+      <c r="T101" s="4">
         <v>4700</v>
       </c>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
@@ -6013,8 +6246,10 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
-    </row>
-    <row r="102" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+    </row>
+    <row r="102" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>348</v>
       </c>
@@ -6038,25 +6273,25 @@
         <v>96</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="2">
-        <v>2</v>
-      </c>
-      <c r="M102" s="4">
-        <v>100</v>
-      </c>
-      <c r="N102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2">
+        <v>2</v>
+      </c>
       <c r="O102" s="4">
+        <v>100</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="4">
         <v>51</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="4">
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102" s="2"/>
+      <c r="T102" s="4">
         <v>4800</v>
       </c>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
@@ -6064,8 +6299,10 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
-    </row>
-    <row r="103" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+    </row>
+    <row r="103" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>349</v>
       </c>
@@ -6089,25 +6326,25 @@
         <v>98</v>
       </c>
       <c r="K103" s="2"/>
-      <c r="L103" s="2">
-        <v>2</v>
-      </c>
-      <c r="M103" s="4">
-        <v>100</v>
-      </c>
-      <c r="N103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2">
+        <v>2</v>
+      </c>
       <c r="O103" s="4">
+        <v>100</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="4">
         <v>52</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="4">
+      <c r="R103">
+        <v>1</v>
+      </c>
+      <c r="S103" s="2"/>
+      <c r="T103" s="4">
         <v>4900</v>
       </c>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
@@ -6115,8 +6352,10 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
-    </row>
-    <row r="104" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+    </row>
+    <row r="104" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>350</v>
       </c>
@@ -6138,25 +6377,25 @@
         <v>100</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2">
-        <v>2</v>
-      </c>
-      <c r="M104" s="4">
-        <v>100</v>
-      </c>
-      <c r="N104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2">
+        <v>2</v>
+      </c>
       <c r="O104" s="4">
+        <v>100</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="4">
         <v>53</v>
       </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="4">
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104" s="2"/>
+      <c r="T104" s="4">
         <v>5000</v>
       </c>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
@@ -6164,8 +6403,10 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
-    </row>
-    <row r="105" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+    </row>
+    <row r="105" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>401</v>
       </c>
@@ -6190,41 +6431,43 @@
       <c r="J105" s="2">
         <v>1</v>
       </c>
-      <c r="K105" s="2">
-        <v>2</v>
-      </c>
-      <c r="L105" s="2">
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2">
+        <v>2</v>
+      </c>
+      <c r="N105" s="2">
         <v>4</v>
       </c>
-      <c r="M105" s="4">
-        <v>100</v>
-      </c>
-      <c r="N105" s="2"/>
       <c r="O105" s="4">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="4">
+        <v>100</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="4">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105" s="2"/>
+      <c r="T105" s="4">
         <v>1000</v>
       </c>
-      <c r="S105" s="4">
-        <v>2</v>
-      </c>
-      <c r="T105" s="4">
+      <c r="U105" s="4">
+        <v>2</v>
+      </c>
+      <c r="V105" s="4">
         <v>10</v>
       </c>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
-    </row>
-    <row r="106" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+    </row>
+    <row r="106" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>402</v>
       </c>
@@ -6247,45 +6490,47 @@
       <c r="J106" s="2">
         <v>2</v>
       </c>
-      <c r="K106" s="2">
-        <v>2</v>
-      </c>
-      <c r="L106" s="2">
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2">
+        <v>2</v>
+      </c>
+      <c r="N106" s="2">
         <v>4</v>
       </c>
-      <c r="M106" s="4">
-        <v>100</v>
-      </c>
-      <c r="N106" s="2"/>
       <c r="O106" s="4">
-        <v>2</v>
-      </c>
-      <c r="P106">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="4">
+        <v>100</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="4">
+        <v>2</v>
+      </c>
+      <c r="R106">
+        <v>1</v>
+      </c>
+      <c r="S106" s="2"/>
+      <c r="T106" s="4">
         <v>2000</v>
       </c>
-      <c r="S106" s="2">
-        <v>2</v>
-      </c>
-      <c r="T106" s="2">
+      <c r="U106" s="2">
+        <v>2</v>
+      </c>
+      <c r="V106" s="2">
         <v>20</v>
       </c>
-      <c r="U106" s="4">
+      <c r="W106" s="4">
         <v>2002</v>
       </c>
-      <c r="V106" s="4">
-        <v>1</v>
-      </c>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
+      <c r="X106" s="4">
+        <v>1</v>
+      </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
-    </row>
-    <row r="107" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+    </row>
+    <row r="107" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>403</v>
       </c>
@@ -6308,39 +6553,41 @@
       <c r="J107" s="2">
         <v>3</v>
       </c>
-      <c r="K107" s="2">
-        <v>2</v>
-      </c>
-      <c r="L107" s="2">
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2">
+        <v>2</v>
+      </c>
+      <c r="N107" s="2">
         <v>4</v>
       </c>
-      <c r="M107" s="4">
-        <v>100</v>
-      </c>
-      <c r="N107" s="2"/>
       <c r="O107" s="4">
-        <v>3</v>
-      </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="4">
+        <v>100</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="4">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107" s="2"/>
+      <c r="T107" s="4">
         <v>3000</v>
       </c>
-      <c r="S107" s="4">
-        <v>2</v>
-      </c>
-      <c r="T107" s="4">
+      <c r="U107" s="4">
+        <v>2</v>
+      </c>
+      <c r="V107" s="4">
         <v>30</v>
       </c>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
-    </row>
-    <row r="108" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+    </row>
+    <row r="108" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>404</v>
       </c>
@@ -6363,45 +6610,47 @@
       <c r="J108" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="2">
-        <v>2</v>
-      </c>
-      <c r="L108" s="2">
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2">
+        <v>2</v>
+      </c>
+      <c r="N108" s="2">
         <v>4</v>
       </c>
-      <c r="M108" s="4">
-        <v>100</v>
-      </c>
-      <c r="N108" s="2"/>
       <c r="O108" s="4">
+        <v>100</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="4">
         <v>4</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="4">
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108" s="2"/>
+      <c r="T108" s="4">
         <v>4000</v>
       </c>
-      <c r="S108" s="2">
-        <v>2</v>
-      </c>
-      <c r="T108" s="2">
+      <c r="U108" s="2">
+        <v>2</v>
+      </c>
+      <c r="V108" s="2">
         <v>40</v>
       </c>
-      <c r="U108" s="4">
+      <c r="W108" s="4">
         <v>2003</v>
       </c>
-      <c r="V108" s="4">
-        <v>1</v>
-      </c>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
+      <c r="X108" s="4">
+        <v>1</v>
+      </c>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
-    </row>
-    <row r="109" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+    </row>
+    <row r="109" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>405</v>
       </c>
@@ -6424,41 +6673,43 @@
       <c r="J109" s="2">
         <v>5</v>
       </c>
-      <c r="K109" s="2">
-        <v>2</v>
-      </c>
-      <c r="L109" s="2">
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2">
+        <v>2</v>
+      </c>
+      <c r="N109" s="2">
         <v>4</v>
       </c>
-      <c r="M109" s="4">
-        <v>100</v>
-      </c>
-      <c r="N109" s="2"/>
       <c r="O109" s="4">
+        <v>100</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="4">
         <v>5</v>
       </c>
-      <c r="P109">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="4">
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2"/>
+      <c r="T109" s="4">
         <v>5000</v>
       </c>
-      <c r="S109" s="4">
-        <v>2</v>
-      </c>
-      <c r="T109" s="4">
+      <c r="U109" s="4">
+        <v>2</v>
+      </c>
+      <c r="V109" s="4">
         <v>50</v>
       </c>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
-    </row>
-    <row r="110" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+    </row>
+    <row r="110" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>406</v>
       </c>
@@ -6481,45 +6732,47 @@
       <c r="J110" s="2">
         <v>6</v>
       </c>
-      <c r="K110" s="2">
-        <v>2</v>
-      </c>
-      <c r="L110" s="2">
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2">
+        <v>2</v>
+      </c>
+      <c r="N110" s="2">
         <v>4</v>
       </c>
-      <c r="M110" s="4">
-        <v>100</v>
-      </c>
-      <c r="N110" s="2"/>
       <c r="O110" s="4">
+        <v>100</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="4">
         <v>6</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="4">
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110" s="2"/>
+      <c r="T110" s="4">
         <v>6000</v>
       </c>
-      <c r="S110" s="2">
-        <v>2</v>
-      </c>
-      <c r="T110" s="2">
+      <c r="U110" s="2">
+        <v>2</v>
+      </c>
+      <c r="V110" s="2">
         <v>60</v>
       </c>
-      <c r="U110" s="4">
+      <c r="W110" s="4">
         <v>2004</v>
       </c>
-      <c r="V110" s="4">
-        <v>1</v>
-      </c>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
+      <c r="X110" s="4">
+        <v>1</v>
+      </c>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
-    </row>
-    <row r="111" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+    </row>
+    <row r="111" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>407</v>
       </c>
@@ -6542,41 +6795,43 @@
       <c r="J111" s="2">
         <v>7</v>
       </c>
-      <c r="K111" s="2">
-        <v>2</v>
-      </c>
-      <c r="L111" s="2">
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2">
+        <v>2</v>
+      </c>
+      <c r="N111" s="2">
         <v>4</v>
       </c>
-      <c r="M111" s="4">
-        <v>100</v>
-      </c>
-      <c r="N111" s="2"/>
       <c r="O111" s="4">
+        <v>100</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="4">
         <v>7</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="4">
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111" s="2"/>
+      <c r="T111" s="4">
         <v>7000</v>
       </c>
-      <c r="S111" s="4">
-        <v>2</v>
-      </c>
-      <c r="T111" s="4">
+      <c r="U111" s="4">
+        <v>2</v>
+      </c>
+      <c r="V111" s="4">
         <v>70</v>
       </c>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
-    </row>
-    <row r="112" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+    </row>
+    <row r="112" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>408</v>
       </c>
@@ -6599,45 +6854,47 @@
       <c r="J112" s="2">
         <v>8</v>
       </c>
-      <c r="K112" s="2">
-        <v>2</v>
-      </c>
-      <c r="L112" s="2">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2">
+        <v>2</v>
+      </c>
+      <c r="N112" s="2">
         <v>4</v>
       </c>
-      <c r="M112" s="4">
-        <v>100</v>
-      </c>
-      <c r="N112" s="2"/>
       <c r="O112" s="4">
+        <v>100</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="4">
         <v>8</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="4">
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112" s="2"/>
+      <c r="T112" s="4">
         <v>8000</v>
       </c>
-      <c r="S112" s="2">
-        <v>2</v>
-      </c>
-      <c r="T112" s="2">
+      <c r="U112" s="2">
+        <v>2</v>
+      </c>
+      <c r="V112" s="2">
         <v>80</v>
       </c>
-      <c r="U112" s="4">
+      <c r="W112" s="4">
         <v>2005</v>
       </c>
-      <c r="V112" s="4">
-        <v>1</v>
-      </c>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
+      <c r="X112" s="4">
+        <v>1</v>
+      </c>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
-    </row>
-    <row r="113" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+    </row>
+    <row r="113" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>409</v>
       </c>
@@ -6660,41 +6917,43 @@
       <c r="J113" s="2">
         <v>9</v>
       </c>
-      <c r="K113" s="2">
-        <v>2</v>
-      </c>
-      <c r="L113" s="2">
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2">
+        <v>2</v>
+      </c>
+      <c r="N113" s="2">
         <v>4</v>
       </c>
-      <c r="M113" s="4">
-        <v>100</v>
-      </c>
-      <c r="N113" s="2"/>
       <c r="O113" s="4">
+        <v>100</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="4">
         <v>9</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="4">
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113" s="2"/>
+      <c r="T113" s="4">
         <v>9000</v>
       </c>
-      <c r="S113" s="4">
-        <v>2</v>
-      </c>
-      <c r="T113" s="4">
+      <c r="U113" s="4">
+        <v>2</v>
+      </c>
+      <c r="V113" s="4">
         <v>90</v>
       </c>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
-    </row>
-    <row r="114" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+    </row>
+    <row r="114" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>410</v>
       </c>
@@ -6715,45 +6974,47 @@
       <c r="J114" s="2">
         <v>10</v>
       </c>
-      <c r="K114" s="2">
-        <v>2</v>
-      </c>
-      <c r="L114" s="2">
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2">
+        <v>2</v>
+      </c>
+      <c r="N114" s="2">
         <v>4</v>
       </c>
-      <c r="M114" s="4">
-        <v>100</v>
-      </c>
-      <c r="N114" s="2"/>
       <c r="O114" s="4">
+        <v>100</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="4">
         <v>10</v>
       </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="4">
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114" s="2"/>
+      <c r="T114" s="4">
         <v>10000</v>
       </c>
-      <c r="S114" s="2">
-        <v>2</v>
-      </c>
-      <c r="T114" s="2">
-        <v>100</v>
-      </c>
-      <c r="U114" s="4">
+      <c r="U114" s="2">
+        <v>2</v>
+      </c>
+      <c r="V114" s="2">
+        <v>100</v>
+      </c>
+      <c r="W114" s="4">
         <v>2006</v>
       </c>
-      <c r="V114" s="4">
-        <v>1</v>
-      </c>
-      <c r="W114" s="4"/>
-      <c r="X114" s="4"/>
+      <c r="X114" s="4">
+        <v>1</v>
+      </c>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>501</v>
       </c>
@@ -6778,35 +7039,37 @@
       <c r="J115" s="2">
         <v>1</v>
       </c>
-      <c r="K115" s="2">
-        <v>3</v>
-      </c>
-      <c r="L115" s="2">
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2">
+        <v>3</v>
+      </c>
+      <c r="N115" s="2">
         <v>5</v>
       </c>
-      <c r="M115" s="4">
-        <v>100</v>
-      </c>
-      <c r="N115" s="2"/>
       <c r="O115" s="4">
-        <v>1</v>
-      </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="4">
+        <v>100</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="4">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115" s="2"/>
+      <c r="T115" s="4">
         <v>1000</v>
       </c>
-      <c r="S115" s="4">
-        <v>2</v>
-      </c>
-      <c r="T115" s="4"/>
       <c r="U115" s="4">
+        <v>2</v>
+      </c>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>502</v>
       </c>
@@ -6829,35 +7092,37 @@
       <c r="J116" s="2">
         <v>2</v>
       </c>
-      <c r="K116" s="2">
-        <v>3</v>
-      </c>
-      <c r="L116" s="2">
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2">
+        <v>3</v>
+      </c>
+      <c r="N116" s="2">
         <v>5</v>
       </c>
-      <c r="M116" s="4">
-        <v>100</v>
-      </c>
-      <c r="N116" s="2"/>
       <c r="O116" s="4">
-        <v>2</v>
-      </c>
-      <c r="P116">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="4">
+        <v>100</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="4">
+        <v>2</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116" s="2"/>
+      <c r="T116" s="4">
         <v>1000</v>
       </c>
-      <c r="S116" s="4">
-        <v>2</v>
-      </c>
-      <c r="T116" s="2"/>
       <c r="U116" s="4">
+        <v>2</v>
+      </c>
+      <c r="V116" s="2"/>
+      <c r="W116" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>503</v>
       </c>
@@ -6880,35 +7145,37 @@
       <c r="J117" s="2">
         <v>3</v>
       </c>
-      <c r="K117" s="2">
-        <v>3</v>
-      </c>
-      <c r="L117" s="2">
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2">
+        <v>3</v>
+      </c>
+      <c r="N117" s="2">
         <v>5</v>
       </c>
-      <c r="M117" s="4">
-        <v>100</v>
-      </c>
-      <c r="N117" s="2"/>
       <c r="O117" s="4">
-        <v>3</v>
-      </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="4">
+        <v>100</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="4">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117" s="2"/>
+      <c r="T117" s="4">
         <v>1000</v>
       </c>
-      <c r="S117" s="4">
-        <v>2</v>
-      </c>
-      <c r="T117" s="4"/>
       <c r="U117" s="4">
+        <v>2</v>
+      </c>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>504</v>
       </c>
@@ -6931,35 +7198,37 @@
       <c r="J118" s="2">
         <v>4</v>
       </c>
-      <c r="K118" s="2">
-        <v>3</v>
-      </c>
-      <c r="L118" s="2">
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2">
+        <v>3</v>
+      </c>
+      <c r="N118" s="2">
         <v>5</v>
       </c>
-      <c r="M118" s="4">
-        <v>100</v>
-      </c>
-      <c r="N118" s="2"/>
       <c r="O118" s="4">
+        <v>100</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="4">
         <v>4</v>
       </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="4">
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118" s="2"/>
+      <c r="T118" s="4">
         <v>1000</v>
       </c>
-      <c r="S118" s="4">
-        <v>2</v>
-      </c>
-      <c r="T118" s="2"/>
       <c r="U118" s="4">
+        <v>2</v>
+      </c>
+      <c r="V118" s="2"/>
+      <c r="W118" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>505</v>
       </c>
@@ -6982,35 +7251,37 @@
       <c r="J119" s="2">
         <v>5</v>
       </c>
-      <c r="K119" s="2">
-        <v>3</v>
-      </c>
-      <c r="L119" s="2">
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2">
+        <v>3</v>
+      </c>
+      <c r="N119" s="2">
         <v>5</v>
       </c>
-      <c r="M119" s="4">
-        <v>100</v>
-      </c>
-      <c r="N119" s="2"/>
       <c r="O119" s="4">
+        <v>100</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="4">
         <v>5</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="4">
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" s="2"/>
+      <c r="T119" s="4">
         <v>1000</v>
       </c>
-      <c r="S119" s="4">
-        <v>2</v>
-      </c>
-      <c r="T119" s="4"/>
       <c r="U119" s="4">
+        <v>2</v>
+      </c>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>506</v>
       </c>
@@ -7033,35 +7304,37 @@
       <c r="J120" s="2">
         <v>6</v>
       </c>
-      <c r="K120" s="2">
-        <v>3</v>
-      </c>
-      <c r="L120" s="2">
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2">
+        <v>3</v>
+      </c>
+      <c r="N120" s="2">
         <v>5</v>
       </c>
-      <c r="M120" s="4">
-        <v>100</v>
-      </c>
-      <c r="N120" s="2"/>
       <c r="O120" s="4">
+        <v>100</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="4">
         <v>6</v>
       </c>
-      <c r="P120">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="4">
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120" s="2"/>
+      <c r="T120" s="4">
         <v>1000</v>
       </c>
-      <c r="S120" s="4">
-        <v>2</v>
-      </c>
-      <c r="T120" s="2"/>
       <c r="U120" s="4">
+        <v>2</v>
+      </c>
+      <c r="V120" s="2"/>
+      <c r="W120" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>507</v>
       </c>
@@ -7084,35 +7357,37 @@
       <c r="J121" s="2">
         <v>7</v>
       </c>
-      <c r="K121" s="2">
-        <v>3</v>
-      </c>
-      <c r="L121" s="2">
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2">
+        <v>3</v>
+      </c>
+      <c r="N121" s="2">
         <v>5</v>
       </c>
-      <c r="M121" s="4">
-        <v>100</v>
-      </c>
-      <c r="N121" s="2"/>
       <c r="O121" s="4">
+        <v>100</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="4">
         <v>7</v>
       </c>
-      <c r="P121">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="4">
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121" s="2"/>
+      <c r="T121" s="4">
         <v>1000</v>
       </c>
-      <c r="S121" s="4">
-        <v>2</v>
-      </c>
-      <c r="T121" s="4"/>
       <c r="U121" s="4">
+        <v>2</v>
+      </c>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>508</v>
       </c>
@@ -7135,35 +7410,37 @@
       <c r="J122" s="2">
         <v>8</v>
       </c>
-      <c r="K122" s="2">
-        <v>3</v>
-      </c>
-      <c r="L122" s="2">
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2">
+        <v>3</v>
+      </c>
+      <c r="N122" s="2">
         <v>5</v>
       </c>
-      <c r="M122" s="4">
-        <v>100</v>
-      </c>
-      <c r="N122" s="2"/>
       <c r="O122" s="4">
+        <v>100</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="4">
         <v>8</v>
       </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="4">
+      <c r="R122">
+        <v>1</v>
+      </c>
+      <c r="S122" s="2"/>
+      <c r="T122" s="4">
         <v>1000</v>
       </c>
-      <c r="S122" s="4">
-        <v>2</v>
-      </c>
-      <c r="T122" s="2"/>
       <c r="U122" s="4">
+        <v>2</v>
+      </c>
+      <c r="V122" s="2"/>
+      <c r="W122" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>509</v>
       </c>
@@ -7186,35 +7463,37 @@
       <c r="J123" s="2">
         <v>9</v>
       </c>
-      <c r="K123" s="2">
-        <v>3</v>
-      </c>
-      <c r="L123" s="2">
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2">
+        <v>3</v>
+      </c>
+      <c r="N123" s="2">
         <v>5</v>
       </c>
-      <c r="M123" s="4">
-        <v>100</v>
-      </c>
-      <c r="N123" s="2"/>
       <c r="O123" s="4">
+        <v>100</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="4">
         <v>9</v>
       </c>
-      <c r="P123">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="4">
+      <c r="R123">
+        <v>1</v>
+      </c>
+      <c r="S123" s="2"/>
+      <c r="T123" s="4">
         <v>1000</v>
       </c>
-      <c r="S123" s="4">
-        <v>2</v>
-      </c>
-      <c r="T123" s="4"/>
       <c r="U123" s="4">
+        <v>2</v>
+      </c>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>510</v>
       </c>
@@ -7237,35 +7516,37 @@
       <c r="J124" s="2">
         <v>10</v>
       </c>
-      <c r="K124" s="2">
-        <v>3</v>
-      </c>
-      <c r="L124" s="2">
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2">
+        <v>3</v>
+      </c>
+      <c r="N124" s="2">
         <v>5</v>
       </c>
-      <c r="M124" s="4">
-        <v>100</v>
-      </c>
-      <c r="N124" s="2"/>
       <c r="O124" s="4">
+        <v>100</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="4">
         <v>10</v>
       </c>
-      <c r="P124">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="4">
+      <c r="R124">
+        <v>1</v>
+      </c>
+      <c r="S124" s="2"/>
+      <c r="T124" s="4">
         <v>1000</v>
       </c>
-      <c r="S124" s="4">
-        <v>2</v>
-      </c>
-      <c r="T124" s="2"/>
       <c r="U124" s="4">
+        <v>2</v>
+      </c>
+      <c r="V124" s="2"/>
+      <c r="W124" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>511</v>
       </c>
@@ -7288,35 +7569,37 @@
       <c r="J125" s="2">
         <v>11</v>
       </c>
-      <c r="K125" s="2">
-        <v>3</v>
-      </c>
-      <c r="L125" s="2">
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2">
+        <v>3</v>
+      </c>
+      <c r="N125" s="2">
         <v>5</v>
       </c>
-      <c r="M125" s="4">
-        <v>100</v>
-      </c>
-      <c r="N125" s="2"/>
       <c r="O125" s="4">
+        <v>100</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="4">
         <v>11</v>
       </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="4">
+      <c r="R125">
+        <v>1</v>
+      </c>
+      <c r="S125" s="2"/>
+      <c r="T125" s="4">
         <v>1000</v>
       </c>
-      <c r="S125" s="4">
-        <v>2</v>
-      </c>
-      <c r="T125" s="4"/>
       <c r="U125" s="4">
+        <v>2</v>
+      </c>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>512</v>
       </c>
@@ -7339,35 +7622,37 @@
       <c r="J126" s="2">
         <v>12</v>
       </c>
-      <c r="K126" s="2">
-        <v>3</v>
-      </c>
-      <c r="L126" s="2">
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2">
+        <v>3</v>
+      </c>
+      <c r="N126" s="2">
         <v>5</v>
       </c>
-      <c r="M126" s="4">
-        <v>100</v>
-      </c>
-      <c r="N126" s="2"/>
       <c r="O126" s="4">
+        <v>100</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="4">
         <v>12</v>
       </c>
-      <c r="P126">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="4">
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126" s="2"/>
+      <c r="T126" s="4">
         <v>1000</v>
       </c>
-      <c r="S126" s="4">
-        <v>2</v>
-      </c>
-      <c r="T126" s="2"/>
       <c r="U126" s="4">
+        <v>2</v>
+      </c>
+      <c r="V126" s="2"/>
+      <c r="W126" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>513</v>
       </c>
@@ -7390,35 +7675,37 @@
       <c r="J127" s="2">
         <v>13</v>
       </c>
-      <c r="K127" s="2">
-        <v>3</v>
-      </c>
-      <c r="L127" s="2">
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2">
+        <v>3</v>
+      </c>
+      <c r="N127" s="2">
         <v>5</v>
       </c>
-      <c r="M127" s="4">
-        <v>100</v>
-      </c>
-      <c r="N127" s="2"/>
       <c r="O127" s="4">
+        <v>100</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="4">
         <v>13</v>
       </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="4">
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127" s="2"/>
+      <c r="T127" s="4">
         <v>1000</v>
       </c>
-      <c r="S127" s="4">
-        <v>2</v>
-      </c>
-      <c r="T127" s="4"/>
       <c r="U127" s="4">
+        <v>2</v>
+      </c>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>514</v>
       </c>
@@ -7441,35 +7728,37 @@
       <c r="J128" s="2">
         <v>14</v>
       </c>
-      <c r="K128" s="2">
-        <v>3</v>
-      </c>
-      <c r="L128" s="2">
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2">
+        <v>3</v>
+      </c>
+      <c r="N128" s="2">
         <v>5</v>
       </c>
-      <c r="M128" s="4">
-        <v>100</v>
-      </c>
-      <c r="N128" s="2"/>
       <c r="O128" s="4">
+        <v>100</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="4">
         <v>14</v>
       </c>
-      <c r="P128">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="4">
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128" s="2"/>
+      <c r="T128" s="4">
         <v>1000</v>
       </c>
-      <c r="S128" s="4">
-        <v>2</v>
-      </c>
-      <c r="T128" s="2"/>
       <c r="U128" s="4">
+        <v>2</v>
+      </c>
+      <c r="V128" s="2"/>
+      <c r="W128" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>515</v>
       </c>
@@ -7492,35 +7781,37 @@
       <c r="J129" s="2">
         <v>15</v>
       </c>
-      <c r="K129" s="2">
-        <v>3</v>
-      </c>
-      <c r="L129" s="2">
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2">
+        <v>3</v>
+      </c>
+      <c r="N129" s="2">
         <v>5</v>
       </c>
-      <c r="M129" s="4">
-        <v>100</v>
-      </c>
-      <c r="N129" s="2"/>
       <c r="O129" s="4">
+        <v>100</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="4">
         <v>15</v>
       </c>
-      <c r="P129">
-        <v>1</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="4">
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129" s="2"/>
+      <c r="T129" s="4">
         <v>1000</v>
       </c>
-      <c r="S129" s="4">
-        <v>2</v>
-      </c>
-      <c r="T129" s="4"/>
       <c r="U129" s="4">
+        <v>2</v>
+      </c>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>516</v>
       </c>
@@ -7543,35 +7834,37 @@
       <c r="J130" s="2">
         <v>16</v>
       </c>
-      <c r="K130" s="2">
-        <v>3</v>
-      </c>
-      <c r="L130" s="2">
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2">
+        <v>3</v>
+      </c>
+      <c r="N130" s="2">
         <v>5</v>
       </c>
-      <c r="M130" s="4">
-        <v>100</v>
-      </c>
-      <c r="N130" s="2"/>
       <c r="O130" s="4">
+        <v>100</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="4">
         <v>16</v>
       </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="4">
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130" s="2"/>
+      <c r="T130" s="4">
         <v>1000</v>
       </c>
-      <c r="S130" s="4">
-        <v>2</v>
-      </c>
-      <c r="T130" s="2"/>
       <c r="U130" s="4">
+        <v>2</v>
+      </c>
+      <c r="V130" s="2"/>
+      <c r="W130" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>517</v>
       </c>
@@ -7594,35 +7887,37 @@
       <c r="J131" s="2">
         <v>17</v>
       </c>
-      <c r="K131" s="2">
-        <v>3</v>
-      </c>
-      <c r="L131" s="2">
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2">
+        <v>3</v>
+      </c>
+      <c r="N131" s="2">
         <v>5</v>
       </c>
-      <c r="M131" s="4">
-        <v>100</v>
-      </c>
-      <c r="N131" s="2"/>
       <c r="O131" s="4">
+        <v>100</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="4">
         <v>17</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="4">
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131" s="2"/>
+      <c r="T131" s="4">
         <v>1000</v>
       </c>
-      <c r="S131" s="4">
-        <v>2</v>
-      </c>
-      <c r="T131" s="4"/>
       <c r="U131" s="4">
+        <v>2</v>
+      </c>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>518</v>
       </c>
@@ -7645,35 +7940,37 @@
       <c r="J132" s="2">
         <v>18</v>
       </c>
-      <c r="K132" s="2">
-        <v>3</v>
-      </c>
-      <c r="L132" s="2">
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2">
+        <v>3</v>
+      </c>
+      <c r="N132" s="2">
         <v>5</v>
       </c>
-      <c r="M132" s="4">
-        <v>100</v>
-      </c>
-      <c r="N132" s="2"/>
       <c r="O132" s="4">
+        <v>100</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="4">
         <v>18</v>
       </c>
-      <c r="P132">
-        <v>1</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="4">
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132" s="2"/>
+      <c r="T132" s="4">
         <v>1000</v>
       </c>
-      <c r="S132" s="4">
-        <v>2</v>
-      </c>
-      <c r="T132" s="2"/>
       <c r="U132" s="4">
+        <v>2</v>
+      </c>
+      <c r="V132" s="2"/>
+      <c r="W132" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>519</v>
       </c>
@@ -7696,35 +7993,37 @@
       <c r="J133" s="2">
         <v>19</v>
       </c>
-      <c r="K133" s="2">
-        <v>3</v>
-      </c>
-      <c r="L133" s="2">
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2">
+        <v>3</v>
+      </c>
+      <c r="N133" s="2">
         <v>5</v>
       </c>
-      <c r="M133" s="4">
-        <v>100</v>
-      </c>
-      <c r="N133" s="2"/>
       <c r="O133" s="4">
+        <v>100</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="4">
         <v>19</v>
       </c>
-      <c r="P133">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="4">
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133" s="2"/>
+      <c r="T133" s="4">
         <v>1000</v>
       </c>
-      <c r="S133" s="4">
-        <v>2</v>
-      </c>
-      <c r="T133" s="4"/>
       <c r="U133" s="4">
+        <v>2</v>
+      </c>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>520</v>
       </c>
@@ -7747,35 +8046,37 @@
       <c r="J134" s="2">
         <v>20</v>
       </c>
-      <c r="K134" s="2">
-        <v>3</v>
-      </c>
-      <c r="L134" s="2">
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2">
+        <v>3</v>
+      </c>
+      <c r="N134" s="2">
         <v>5</v>
       </c>
-      <c r="M134" s="4">
-        <v>100</v>
-      </c>
-      <c r="N134" s="2"/>
       <c r="O134" s="4">
+        <v>100</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="4">
         <v>20</v>
       </c>
-      <c r="P134">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="4">
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134" s="2"/>
+      <c r="T134" s="4">
         <v>1000</v>
       </c>
-      <c r="S134" s="4">
-        <v>2</v>
-      </c>
-      <c r="T134" s="4"/>
       <c r="U134" s="4">
+        <v>2</v>
+      </c>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>521</v>
       </c>
@@ -7798,35 +8099,37 @@
       <c r="J135" s="2">
         <v>21</v>
       </c>
-      <c r="K135" s="2">
-        <v>3</v>
-      </c>
-      <c r="L135" s="2">
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2">
+        <v>3</v>
+      </c>
+      <c r="N135" s="2">
         <v>5</v>
       </c>
-      <c r="M135" s="4">
-        <v>100</v>
-      </c>
-      <c r="N135" s="2"/>
       <c r="O135" s="4">
+        <v>100</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="4">
         <v>21</v>
       </c>
-      <c r="P135">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="4">
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135" s="2"/>
+      <c r="T135" s="4">
         <v>1000</v>
       </c>
-      <c r="S135" s="4">
-        <v>2</v>
-      </c>
-      <c r="T135" s="2"/>
       <c r="U135" s="4">
+        <v>2</v>
+      </c>
+      <c r="V135" s="2"/>
+      <c r="W135" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>522</v>
       </c>
@@ -7849,35 +8152,37 @@
       <c r="J136" s="2">
         <v>22</v>
       </c>
-      <c r="K136" s="2">
-        <v>3</v>
-      </c>
-      <c r="L136" s="2">
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2">
+        <v>3</v>
+      </c>
+      <c r="N136" s="2">
         <v>5</v>
       </c>
-      <c r="M136" s="4">
-        <v>100</v>
-      </c>
-      <c r="N136" s="2"/>
       <c r="O136" s="4">
+        <v>100</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="4">
         <v>22</v>
       </c>
-      <c r="P136">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="4">
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136" s="2"/>
+      <c r="T136" s="4">
         <v>1000</v>
       </c>
-      <c r="S136" s="4">
-        <v>2</v>
-      </c>
-      <c r="T136" s="4"/>
       <c r="U136" s="4">
+        <v>2</v>
+      </c>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>523</v>
       </c>
@@ -7900,35 +8205,37 @@
       <c r="J137" s="2">
         <v>23</v>
       </c>
-      <c r="K137" s="2">
-        <v>3</v>
-      </c>
-      <c r="L137" s="2">
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2">
+        <v>3</v>
+      </c>
+      <c r="N137" s="2">
         <v>5</v>
       </c>
-      <c r="M137" s="4">
-        <v>100</v>
-      </c>
-      <c r="N137" s="2"/>
       <c r="O137" s="4">
+        <v>100</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="4">
         <v>23</v>
       </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="4">
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137" s="2"/>
+      <c r="T137" s="4">
         <v>1000</v>
       </c>
-      <c r="S137" s="4">
-        <v>2</v>
-      </c>
-      <c r="T137" s="2"/>
       <c r="U137" s="4">
+        <v>2</v>
+      </c>
+      <c r="V137" s="2"/>
+      <c r="W137" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>524</v>
       </c>
@@ -7951,35 +8258,37 @@
       <c r="J138" s="2">
         <v>24</v>
       </c>
-      <c r="K138" s="2">
-        <v>3</v>
-      </c>
-      <c r="L138" s="2">
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2">
+        <v>3</v>
+      </c>
+      <c r="N138" s="2">
         <v>5</v>
       </c>
-      <c r="M138" s="4">
-        <v>100</v>
-      </c>
-      <c r="N138" s="2"/>
       <c r="O138" s="4">
+        <v>100</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="4">
         <v>24</v>
       </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="4">
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138" s="2"/>
+      <c r="T138" s="4">
         <v>1000</v>
       </c>
-      <c r="S138" s="4">
-        <v>2</v>
-      </c>
-      <c r="T138" s="4"/>
       <c r="U138" s="4">
+        <v>2</v>
+      </c>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>525</v>
       </c>
@@ -8002,35 +8311,37 @@
       <c r="J139" s="2">
         <v>25</v>
       </c>
-      <c r="K139" s="2">
-        <v>3</v>
-      </c>
-      <c r="L139" s="2">
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2">
+        <v>3</v>
+      </c>
+      <c r="N139" s="2">
         <v>5</v>
       </c>
-      <c r="M139" s="4">
-        <v>100</v>
-      </c>
-      <c r="N139" s="2"/>
       <c r="O139" s="4">
+        <v>100</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="4">
         <v>25</v>
       </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="4">
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139" s="2"/>
+      <c r="T139" s="4">
         <v>1000</v>
       </c>
-      <c r="S139" s="4">
-        <v>2</v>
-      </c>
-      <c r="T139" s="2"/>
       <c r="U139" s="4">
+        <v>2</v>
+      </c>
+      <c r="V139" s="2"/>
+      <c r="W139" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>526</v>
       </c>
@@ -8053,35 +8364,37 @@
       <c r="J140" s="2">
         <v>26</v>
       </c>
-      <c r="K140" s="2">
-        <v>3</v>
-      </c>
-      <c r="L140" s="2">
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2">
+        <v>3</v>
+      </c>
+      <c r="N140" s="2">
         <v>5</v>
       </c>
-      <c r="M140" s="4">
-        <v>100</v>
-      </c>
-      <c r="N140" s="2"/>
       <c r="O140" s="4">
+        <v>100</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="4">
         <v>26</v>
       </c>
-      <c r="P140">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="4">
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140" s="2"/>
+      <c r="T140" s="4">
         <v>1000</v>
       </c>
-      <c r="S140" s="4">
-        <v>2</v>
-      </c>
-      <c r="T140" s="4"/>
       <c r="U140" s="4">
+        <v>2</v>
+      </c>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>527</v>
       </c>
@@ -8104,35 +8417,37 @@
       <c r="J141" s="2">
         <v>27</v>
       </c>
-      <c r="K141" s="2">
-        <v>3</v>
-      </c>
-      <c r="L141" s="2">
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2">
+        <v>3</v>
+      </c>
+      <c r="N141" s="2">
         <v>5</v>
       </c>
-      <c r="M141" s="4">
-        <v>100</v>
-      </c>
-      <c r="N141" s="2"/>
       <c r="O141" s="4">
+        <v>100</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="4">
         <v>27</v>
       </c>
-      <c r="P141">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="4">
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141" s="2"/>
+      <c r="T141" s="4">
         <v>1000</v>
       </c>
-      <c r="S141" s="4">
-        <v>2</v>
-      </c>
-      <c r="T141" s="2"/>
       <c r="U141" s="4">
+        <v>2</v>
+      </c>
+      <c r="V141" s="2"/>
+      <c r="W141" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>528</v>
       </c>
@@ -8155,35 +8470,37 @@
       <c r="J142" s="2">
         <v>28</v>
       </c>
-      <c r="K142" s="2">
-        <v>3</v>
-      </c>
-      <c r="L142" s="2">
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2">
+        <v>3</v>
+      </c>
+      <c r="N142" s="2">
         <v>5</v>
       </c>
-      <c r="M142" s="4">
-        <v>100</v>
-      </c>
-      <c r="N142" s="2"/>
       <c r="O142" s="4">
+        <v>100</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="4">
         <v>28</v>
       </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="4">
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="4">
         <v>1000</v>
       </c>
-      <c r="S142" s="4">
-        <v>2</v>
-      </c>
-      <c r="T142" s="4"/>
       <c r="U142" s="4">
+        <v>2</v>
+      </c>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>529</v>
       </c>
@@ -8206,35 +8523,37 @@
       <c r="J143" s="2">
         <v>29</v>
       </c>
-      <c r="K143" s="2">
-        <v>3</v>
-      </c>
-      <c r="L143" s="2">
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2">
+        <v>3</v>
+      </c>
+      <c r="N143" s="2">
         <v>5</v>
       </c>
-      <c r="M143" s="4">
-        <v>100</v>
-      </c>
-      <c r="N143" s="2"/>
       <c r="O143" s="4">
+        <v>100</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="4">
         <v>29</v>
       </c>
-      <c r="P143">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="4">
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143" s="2"/>
+      <c r="T143" s="4">
         <v>1000</v>
       </c>
-      <c r="S143" s="4">
-        <v>2</v>
-      </c>
-      <c r="T143" s="2"/>
       <c r="U143" s="4">
+        <v>2</v>
+      </c>
+      <c r="V143" s="2"/>
+      <c r="W143" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>530</v>
       </c>
@@ -8257,35 +8576,37 @@
       <c r="J144" s="2">
         <v>30</v>
       </c>
-      <c r="K144" s="2">
-        <v>3</v>
-      </c>
-      <c r="L144" s="2">
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2">
+        <v>3</v>
+      </c>
+      <c r="N144" s="2">
         <v>5</v>
       </c>
-      <c r="M144" s="4">
-        <v>100</v>
-      </c>
-      <c r="N144" s="2"/>
       <c r="O144" s="4">
+        <v>100</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="4">
         <v>30</v>
       </c>
-      <c r="P144">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="4">
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144" s="2"/>
+      <c r="T144" s="4">
         <v>1000</v>
       </c>
-      <c r="S144" s="4">
-        <v>2</v>
-      </c>
-      <c r="T144" s="4"/>
       <c r="U144" s="4">
+        <v>2</v>
+      </c>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>531</v>
       </c>
@@ -8308,35 +8629,37 @@
       <c r="J145" s="2">
         <v>31</v>
       </c>
-      <c r="K145" s="2">
-        <v>3</v>
-      </c>
-      <c r="L145" s="2">
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2">
+        <v>3</v>
+      </c>
+      <c r="N145" s="2">
         <v>5</v>
       </c>
-      <c r="M145" s="4">
-        <v>100</v>
-      </c>
-      <c r="N145" s="2"/>
       <c r="O145" s="4">
+        <v>100</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="4">
         <v>31</v>
       </c>
-      <c r="P145">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="4">
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145" s="2"/>
+      <c r="T145" s="4">
         <v>1000</v>
       </c>
-      <c r="S145" s="4">
-        <v>2</v>
-      </c>
-      <c r="T145" s="4"/>
       <c r="U145" s="4">
+        <v>2</v>
+      </c>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>532</v>
       </c>
@@ -8359,35 +8682,37 @@
       <c r="J146" s="2">
         <v>32</v>
       </c>
-      <c r="K146" s="2">
-        <v>3</v>
-      </c>
-      <c r="L146" s="2">
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2">
+        <v>3</v>
+      </c>
+      <c r="N146" s="2">
         <v>5</v>
       </c>
-      <c r="M146" s="4">
-        <v>100</v>
-      </c>
-      <c r="N146" s="2"/>
       <c r="O146" s="4">
+        <v>100</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="4">
         <v>32</v>
       </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="4">
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146" s="2"/>
+      <c r="T146" s="4">
         <v>1000</v>
       </c>
-      <c r="S146" s="4">
-        <v>2</v>
-      </c>
-      <c r="T146" s="2"/>
       <c r="U146" s="4">
+        <v>2</v>
+      </c>
+      <c r="V146" s="2"/>
+      <c r="W146" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>533</v>
       </c>
@@ -8410,35 +8735,37 @@
       <c r="J147" s="2">
         <v>33</v>
       </c>
-      <c r="K147" s="2">
-        <v>3</v>
-      </c>
-      <c r="L147" s="2">
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2">
+        <v>3</v>
+      </c>
+      <c r="N147" s="2">
         <v>5</v>
       </c>
-      <c r="M147" s="4">
-        <v>100</v>
-      </c>
-      <c r="N147" s="2"/>
       <c r="O147" s="4">
+        <v>100</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="4">
         <v>33</v>
       </c>
-      <c r="P147">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="4">
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147" s="2"/>
+      <c r="T147" s="4">
         <v>1000</v>
       </c>
-      <c r="S147" s="4">
-        <v>2</v>
-      </c>
-      <c r="T147" s="4"/>
       <c r="U147" s="4">
+        <v>2</v>
+      </c>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>534</v>
       </c>
@@ -8461,35 +8788,37 @@
       <c r="J148" s="2">
         <v>34</v>
       </c>
-      <c r="K148" s="2">
-        <v>3</v>
-      </c>
-      <c r="L148" s="2">
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2">
+        <v>3</v>
+      </c>
+      <c r="N148" s="2">
         <v>5</v>
       </c>
-      <c r="M148" s="4">
-        <v>100</v>
-      </c>
-      <c r="N148" s="2"/>
       <c r="O148" s="4">
+        <v>100</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="4">
         <v>34</v>
       </c>
-      <c r="P148">
-        <v>1</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="4">
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148" s="2"/>
+      <c r="T148" s="4">
         <v>1000</v>
       </c>
-      <c r="S148" s="4">
-        <v>2</v>
-      </c>
-      <c r="T148" s="2"/>
       <c r="U148" s="4">
+        <v>2</v>
+      </c>
+      <c r="V148" s="2"/>
+      <c r="W148" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>535</v>
       </c>
@@ -8512,35 +8841,37 @@
       <c r="J149" s="2">
         <v>35</v>
       </c>
-      <c r="K149" s="2">
-        <v>3</v>
-      </c>
-      <c r="L149" s="2">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2">
+        <v>3</v>
+      </c>
+      <c r="N149" s="2">
         <v>5</v>
       </c>
-      <c r="M149" s="4">
-        <v>100</v>
-      </c>
-      <c r="N149" s="2"/>
       <c r="O149" s="4">
+        <v>100</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="4">
         <v>35</v>
       </c>
-      <c r="P149">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="4">
+      <c r="R149">
+        <v>1</v>
+      </c>
+      <c r="S149" s="2"/>
+      <c r="T149" s="4">
         <v>1000</v>
       </c>
-      <c r="S149" s="4">
-        <v>2</v>
-      </c>
-      <c r="T149" s="4"/>
       <c r="U149" s="4">
+        <v>2</v>
+      </c>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>536</v>
       </c>
@@ -8563,35 +8894,37 @@
       <c r="J150" s="2">
         <v>36</v>
       </c>
-      <c r="K150" s="2">
-        <v>3</v>
-      </c>
-      <c r="L150" s="2">
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2">
+        <v>3</v>
+      </c>
+      <c r="N150" s="2">
         <v>5</v>
       </c>
-      <c r="M150" s="4">
-        <v>100</v>
-      </c>
-      <c r="N150" s="2"/>
       <c r="O150" s="4">
+        <v>100</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="4">
         <v>36</v>
       </c>
-      <c r="P150">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="4">
+      <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150" s="2"/>
+      <c r="T150" s="4">
         <v>1000</v>
       </c>
-      <c r="S150" s="4">
-        <v>2</v>
-      </c>
-      <c r="T150" s="4"/>
       <c r="U150" s="4">
+        <v>2</v>
+      </c>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>537</v>
       </c>
@@ -8614,35 +8947,37 @@
       <c r="J151" s="2">
         <v>37</v>
       </c>
-      <c r="K151" s="2">
-        <v>3</v>
-      </c>
-      <c r="L151" s="2">
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2">
+        <v>3</v>
+      </c>
+      <c r="N151" s="2">
         <v>5</v>
       </c>
-      <c r="M151" s="4">
-        <v>100</v>
-      </c>
-      <c r="N151" s="2"/>
       <c r="O151" s="4">
+        <v>100</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="4">
         <v>37</v>
       </c>
-      <c r="P151">
-        <v>1</v>
-      </c>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="4">
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151" s="2"/>
+      <c r="T151" s="4">
         <v>1000</v>
       </c>
-      <c r="S151" s="4">
-        <v>2</v>
-      </c>
-      <c r="T151" s="4"/>
       <c r="U151" s="4">
+        <v>2</v>
+      </c>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>538</v>
       </c>
@@ -8665,35 +9000,37 @@
       <c r="J152" s="2">
         <v>38</v>
       </c>
-      <c r="K152" s="2">
-        <v>3</v>
-      </c>
-      <c r="L152" s="2">
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2">
+        <v>3</v>
+      </c>
+      <c r="N152" s="2">
         <v>5</v>
       </c>
-      <c r="M152" s="4">
-        <v>100</v>
-      </c>
-      <c r="N152" s="2"/>
       <c r="O152" s="4">
+        <v>100</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="4">
         <v>38</v>
       </c>
-      <c r="P152">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="4">
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152" s="2"/>
+      <c r="T152" s="4">
         <v>1000</v>
       </c>
-      <c r="S152" s="4">
-        <v>2</v>
-      </c>
-      <c r="T152" s="2"/>
       <c r="U152" s="4">
+        <v>2</v>
+      </c>
+      <c r="V152" s="2"/>
+      <c r="W152" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>539</v>
       </c>
@@ -8716,35 +9053,37 @@
       <c r="J153" s="2">
         <v>39</v>
       </c>
-      <c r="K153" s="2">
-        <v>3</v>
-      </c>
-      <c r="L153" s="2">
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2">
+        <v>3</v>
+      </c>
+      <c r="N153" s="2">
         <v>5</v>
       </c>
-      <c r="M153" s="4">
-        <v>100</v>
-      </c>
-      <c r="N153" s="2"/>
       <c r="O153" s="4">
+        <v>100</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="4">
         <v>39</v>
       </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="4">
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153" s="2"/>
+      <c r="T153" s="4">
         <v>1000</v>
       </c>
-      <c r="S153" s="4">
-        <v>2</v>
-      </c>
-      <c r="T153" s="4"/>
       <c r="U153" s="4">
+        <v>2</v>
+      </c>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>540</v>
       </c>
@@ -8765,31 +9104,33 @@
       <c r="J154" s="2">
         <v>40</v>
       </c>
-      <c r="K154" s="2">
-        <v>3</v>
-      </c>
-      <c r="L154" s="2">
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2">
+        <v>3</v>
+      </c>
+      <c r="N154" s="2">
         <v>5</v>
       </c>
-      <c r="M154" s="4">
-        <v>100</v>
-      </c>
-      <c r="N154" s="2"/>
       <c r="O154" s="4">
+        <v>100</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="4">
         <v>40</v>
       </c>
-      <c r="P154">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="4">
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154" s="2"/>
+      <c r="T154" s="4">
         <v>1000</v>
       </c>
-      <c r="S154" s="4">
-        <v>2</v>
-      </c>
-      <c r="T154" s="2"/>
       <c r="U154" s="4">
+        <v>2</v>
+      </c>
+      <c r="V154" s="2"/>
+      <c r="W154" s="4">
         <v>20</v>
       </c>
     </row>
@@ -8801,24 +9142,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -8826,51 +9176,42 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>